--- a/20_営業/12_OIC共通/TE030/T_TE030_CCD_010_Import用コールバック受信.xlsx
+++ b/20_営業/12_OIC共通/TE030/T_TE030_CCD_010_Import用コールバック受信.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\89_SaaS対応\20_ERPCloud導入\20_実装フェーズ\10_成果物\16_単体テスト実施\外部結合完了時\OIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_19901～20000\E_本稼動_19992【共通】OIC3アップグレード対応\20_成果物\TE030\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21060" yWindow="0" windowWidth="23040" windowHeight="8940"/>
+    <workbookView xWindow="21060" yWindow="1200" windowWidth="23040" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -19,17 +19,19 @@
     <sheet name="テスト仕様_データ・プロファイル" sheetId="5" r:id="rId5"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ1)" sheetId="11" r:id="rId6"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ2)" sheetId="6" r:id="rId7"/>
-    <sheet name="不具合ログ" sheetId="7" r:id="rId8"/>
-    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId9"/>
+    <sheet name="テスト仕様_テスト結果(テスト・シナリオ3)" sheetId="12" r:id="rId8"/>
+    <sheet name="不具合ログ" sheetId="7" r:id="rId9"/>
+    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">テスト・シナリオ一覧!$A$1:$F$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">テスト仕様_データ・プロファイル!$A$1:$C$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'テスト仕様_テスト結果(テスト・シナリオ1)'!$A$1:$I$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'テスト仕様_テスト結果(テスト・シナリオ2)'!$A$1:$I$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'テスト仕様_テスト結果(テスト・シナリオ3)'!$A$1:$I$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">作成上の注意点!$A$1:$M$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$H$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$17</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="190">
   <si>
     <t>株式会社伊藤園</t>
     <phoneticPr fontId="5"/>
@@ -1110,6 +1112,145 @@
   <si>
     <t>Issue化</t>
   </si>
+  <si>
+    <t>Issue1.1</t>
+  </si>
+  <si>
+    <t>Issue1.1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SCSK 佐藤勇樹</t>
+    <rPh sb="5" eb="9">
+      <t>サトウユウキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シナリオ3</t>
+  </si>
+  <si>
+    <t>テスト・シナリオ3</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ステップNo.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>T_TE030_CCD_010_Import用コールバック受信_エビデンス_(シナリオ3).xlsx</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>左記の通り</t>
+    <rPh sb="0" eb="2">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3-2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD003(ジョブステータス登録)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD_007実行後、ERPからのコールバックを受けてXXCCD010が実行され正常終了する。</t>
+    <rPh sb="9" eb="11">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="42" eb="46">
+      <t>セイジョウシュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①XXCCD010からXXCCD003が実行され、正常終了する。
+②ジョブ結果テーブルにジョブ結果が登録される。</t>
+    <rPh sb="47" eb="49">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[/paasif/inbound/cc_iffile/cc/CFO010A08/11]にインポート用ファイルを配置する。
+以下の入力パラメータでOIC「XXCCD_007(FDBI実行)」を起動する。
+BIPパラメータ：[2022-12]
+BIP名：[XXCFO010A01C]</t>
+    <rPh sb="49" eb="50">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD010(Import用コールバック受信)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>E_本稼動_19992 OIC3アップグレード対応</t>
+  </si>
+  <si>
+    <t>instanceIdの型変換に伴うジョブステータス登録(XXCCD003)の正常終了確認　(E_本稼働_19992 OICアップグレード対応)</t>
+    <rPh sb="11" eb="14">
+      <t>カタヘンカン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>トモナ</t>
+    </rPh>
+    <rPh sb="38" eb="42">
+      <t>セイジョウシュウリョウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -1120,7 +1261,7 @@
     <numFmt numFmtId="177" formatCode="mmm\ dd\ yyyy"/>
     <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1308,6 +1449,14 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1352,7 +1501,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1925,6 +2074,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1938,7 +2098,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2273,6 +2433,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="41" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2316,6 +2485,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99CC"/>
       <color rgb="FFC0C0C0"/>
       <color rgb="FF0000FF"/>
     </mruColors>
@@ -4129,6 +4299,731 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>13335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="27780615"/>
+          <a:ext cx="6939915" cy="2609850"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.020作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト・シナリオ毎のテスト・ステップを記載して下さい。コンカレント・プログラムの場合は各プロセスの内部処理、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        画面の場合は各機能の内部処理で、結果が分岐しうる処理を網羅するようにして下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト内容」には、テスト・ステップ毎のテスト内容を記載して下さい。また、記載の上の注意は、以下を参照して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・処理が分岐しうる条件を、カラム名単位で詳細に記載して下さい。その際、カラム名は、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               検証のポイントとなるカラムを選択して記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>　                 例：○○フラグ＝'Y'によって抽出対象となる事を確認</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・データ取得ロジック(SELECT文)を確認する場合、SELECTできないケースも記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・１データを複数のテスト・ステップで使用する場合、以下の例を参考に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                   例：シナリオX-Xと同時検証</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト対象機能」には、「MD.050機能拡張に当っての機能設計書」（または「MD.070 機能拡張にあたっての</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        技術設計書」）で定義される「機能番号」および「機能名」を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 画面テストの際に画面から入力する値は、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: コンカレント、共通関数のテスト実施の際に使用するパラメータは、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>32385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="30481905"/>
+          <a:ext cx="6939915" cy="2802255"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.070作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト結果表に単体テスト結果を記載する際には、次のガイドラインに従います。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            1）予想結果: 成否判定が可能な予想される結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                    例：○○フラグ＝'Y'により抽出対象となる、××IDが不一致のため更新対象外となる</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            2）実際の結果: 実際にテスト・ステップで定義された内容でテストを実施した際の、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               予想結果に対応する実際の結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            3）判定: 予想結果と実際の結果を比較し、テストの成否を判定した結果を以下の3つの記号で記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・○: テスト成功</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・×: テスト失敗</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・－: 対象外（前ステップでテストが失敗し、テストが実施できなかったような場合に使用します。）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            4）テスター: テスト実施者名を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            5）実施日: テスト実施日の年月日を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: パフォーマンス・テスト用のテスト・シナリオの場合、「予想結果」、「実際の結果」に処理時間を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 再テストの場合、行を挿入して再テスト結果を記載してください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>32385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2447925</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28575" y="26961465"/>
+          <a:ext cx="3303270" cy="455295"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 他に添付するエビデンスなどがあれば</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>         記述します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -4749,15 +5644,15 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1">
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
     </row>
     <row r="7" spans="2:8" ht="6" customHeight="1">
       <c r="B7" s="5"/>
@@ -4766,41 +5661,41 @@
       <c r="B8" s="5"/>
     </row>
     <row r="9" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="123"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
     </row>
     <row r="10" spans="2:8" ht="6" customHeight="1">
       <c r="B10" s="5"/>
     </row>
     <row r="11" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="126"/>
     </row>
     <row r="12" spans="2:8" ht="6" customHeight="1"/>
     <row r="13" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="126" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="6"/>
@@ -4837,7 +5732,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="7">
-        <v>44981</v>
+        <v>45575</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="6" customHeight="1">
@@ -4861,7 +5756,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4908,17 +5803,629 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="25.125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="27" customWidth="1"/>
+    <col min="6" max="7" width="11.125" style="27" customWidth="1"/>
+    <col min="8" max="256" width="9" style="27"/>
+    <col min="257" max="257" width="1.625" style="27" customWidth="1"/>
+    <col min="258" max="258" width="6.625" style="27" customWidth="1"/>
+    <col min="259" max="259" width="25.125" style="27" customWidth="1"/>
+    <col min="260" max="260" width="24.625" style="27" customWidth="1"/>
+    <col min="261" max="261" width="8.625" style="27" customWidth="1"/>
+    <col min="262" max="263" width="11.125" style="27" customWidth="1"/>
+    <col min="264" max="512" width="9" style="27"/>
+    <col min="513" max="513" width="1.625" style="27" customWidth="1"/>
+    <col min="514" max="514" width="6.625" style="27" customWidth="1"/>
+    <col min="515" max="515" width="25.125" style="27" customWidth="1"/>
+    <col min="516" max="516" width="24.625" style="27" customWidth="1"/>
+    <col min="517" max="517" width="8.625" style="27" customWidth="1"/>
+    <col min="518" max="519" width="11.125" style="27" customWidth="1"/>
+    <col min="520" max="768" width="9" style="27"/>
+    <col min="769" max="769" width="1.625" style="27" customWidth="1"/>
+    <col min="770" max="770" width="6.625" style="27" customWidth="1"/>
+    <col min="771" max="771" width="25.125" style="27" customWidth="1"/>
+    <col min="772" max="772" width="24.625" style="27" customWidth="1"/>
+    <col min="773" max="773" width="8.625" style="27" customWidth="1"/>
+    <col min="774" max="775" width="11.125" style="27" customWidth="1"/>
+    <col min="776" max="1024" width="9" style="27"/>
+    <col min="1025" max="1025" width="1.625" style="27" customWidth="1"/>
+    <col min="1026" max="1026" width="6.625" style="27" customWidth="1"/>
+    <col min="1027" max="1027" width="25.125" style="27" customWidth="1"/>
+    <col min="1028" max="1028" width="24.625" style="27" customWidth="1"/>
+    <col min="1029" max="1029" width="8.625" style="27" customWidth="1"/>
+    <col min="1030" max="1031" width="11.125" style="27" customWidth="1"/>
+    <col min="1032" max="1280" width="9" style="27"/>
+    <col min="1281" max="1281" width="1.625" style="27" customWidth="1"/>
+    <col min="1282" max="1282" width="6.625" style="27" customWidth="1"/>
+    <col min="1283" max="1283" width="25.125" style="27" customWidth="1"/>
+    <col min="1284" max="1284" width="24.625" style="27" customWidth="1"/>
+    <col min="1285" max="1285" width="8.625" style="27" customWidth="1"/>
+    <col min="1286" max="1287" width="11.125" style="27" customWidth="1"/>
+    <col min="1288" max="1536" width="9" style="27"/>
+    <col min="1537" max="1537" width="1.625" style="27" customWidth="1"/>
+    <col min="1538" max="1538" width="6.625" style="27" customWidth="1"/>
+    <col min="1539" max="1539" width="25.125" style="27" customWidth="1"/>
+    <col min="1540" max="1540" width="24.625" style="27" customWidth="1"/>
+    <col min="1541" max="1541" width="8.625" style="27" customWidth="1"/>
+    <col min="1542" max="1543" width="11.125" style="27" customWidth="1"/>
+    <col min="1544" max="1792" width="9" style="27"/>
+    <col min="1793" max="1793" width="1.625" style="27" customWidth="1"/>
+    <col min="1794" max="1794" width="6.625" style="27" customWidth="1"/>
+    <col min="1795" max="1795" width="25.125" style="27" customWidth="1"/>
+    <col min="1796" max="1796" width="24.625" style="27" customWidth="1"/>
+    <col min="1797" max="1797" width="8.625" style="27" customWidth="1"/>
+    <col min="1798" max="1799" width="11.125" style="27" customWidth="1"/>
+    <col min="1800" max="2048" width="9" style="27"/>
+    <col min="2049" max="2049" width="1.625" style="27" customWidth="1"/>
+    <col min="2050" max="2050" width="6.625" style="27" customWidth="1"/>
+    <col min="2051" max="2051" width="25.125" style="27" customWidth="1"/>
+    <col min="2052" max="2052" width="24.625" style="27" customWidth="1"/>
+    <col min="2053" max="2053" width="8.625" style="27" customWidth="1"/>
+    <col min="2054" max="2055" width="11.125" style="27" customWidth="1"/>
+    <col min="2056" max="2304" width="9" style="27"/>
+    <col min="2305" max="2305" width="1.625" style="27" customWidth="1"/>
+    <col min="2306" max="2306" width="6.625" style="27" customWidth="1"/>
+    <col min="2307" max="2307" width="25.125" style="27" customWidth="1"/>
+    <col min="2308" max="2308" width="24.625" style="27" customWidth="1"/>
+    <col min="2309" max="2309" width="8.625" style="27" customWidth="1"/>
+    <col min="2310" max="2311" width="11.125" style="27" customWidth="1"/>
+    <col min="2312" max="2560" width="9" style="27"/>
+    <col min="2561" max="2561" width="1.625" style="27" customWidth="1"/>
+    <col min="2562" max="2562" width="6.625" style="27" customWidth="1"/>
+    <col min="2563" max="2563" width="25.125" style="27" customWidth="1"/>
+    <col min="2564" max="2564" width="24.625" style="27" customWidth="1"/>
+    <col min="2565" max="2565" width="8.625" style="27" customWidth="1"/>
+    <col min="2566" max="2567" width="11.125" style="27" customWidth="1"/>
+    <col min="2568" max="2816" width="9" style="27"/>
+    <col min="2817" max="2817" width="1.625" style="27" customWidth="1"/>
+    <col min="2818" max="2818" width="6.625" style="27" customWidth="1"/>
+    <col min="2819" max="2819" width="25.125" style="27" customWidth="1"/>
+    <col min="2820" max="2820" width="24.625" style="27" customWidth="1"/>
+    <col min="2821" max="2821" width="8.625" style="27" customWidth="1"/>
+    <col min="2822" max="2823" width="11.125" style="27" customWidth="1"/>
+    <col min="2824" max="3072" width="9" style="27"/>
+    <col min="3073" max="3073" width="1.625" style="27" customWidth="1"/>
+    <col min="3074" max="3074" width="6.625" style="27" customWidth="1"/>
+    <col min="3075" max="3075" width="25.125" style="27" customWidth="1"/>
+    <col min="3076" max="3076" width="24.625" style="27" customWidth="1"/>
+    <col min="3077" max="3077" width="8.625" style="27" customWidth="1"/>
+    <col min="3078" max="3079" width="11.125" style="27" customWidth="1"/>
+    <col min="3080" max="3328" width="9" style="27"/>
+    <col min="3329" max="3329" width="1.625" style="27" customWidth="1"/>
+    <col min="3330" max="3330" width="6.625" style="27" customWidth="1"/>
+    <col min="3331" max="3331" width="25.125" style="27" customWidth="1"/>
+    <col min="3332" max="3332" width="24.625" style="27" customWidth="1"/>
+    <col min="3333" max="3333" width="8.625" style="27" customWidth="1"/>
+    <col min="3334" max="3335" width="11.125" style="27" customWidth="1"/>
+    <col min="3336" max="3584" width="9" style="27"/>
+    <col min="3585" max="3585" width="1.625" style="27" customWidth="1"/>
+    <col min="3586" max="3586" width="6.625" style="27" customWidth="1"/>
+    <col min="3587" max="3587" width="25.125" style="27" customWidth="1"/>
+    <col min="3588" max="3588" width="24.625" style="27" customWidth="1"/>
+    <col min="3589" max="3589" width="8.625" style="27" customWidth="1"/>
+    <col min="3590" max="3591" width="11.125" style="27" customWidth="1"/>
+    <col min="3592" max="3840" width="9" style="27"/>
+    <col min="3841" max="3841" width="1.625" style="27" customWidth="1"/>
+    <col min="3842" max="3842" width="6.625" style="27" customWidth="1"/>
+    <col min="3843" max="3843" width="25.125" style="27" customWidth="1"/>
+    <col min="3844" max="3844" width="24.625" style="27" customWidth="1"/>
+    <col min="3845" max="3845" width="8.625" style="27" customWidth="1"/>
+    <col min="3846" max="3847" width="11.125" style="27" customWidth="1"/>
+    <col min="3848" max="4096" width="9" style="27"/>
+    <col min="4097" max="4097" width="1.625" style="27" customWidth="1"/>
+    <col min="4098" max="4098" width="6.625" style="27" customWidth="1"/>
+    <col min="4099" max="4099" width="25.125" style="27" customWidth="1"/>
+    <col min="4100" max="4100" width="24.625" style="27" customWidth="1"/>
+    <col min="4101" max="4101" width="8.625" style="27" customWidth="1"/>
+    <col min="4102" max="4103" width="11.125" style="27" customWidth="1"/>
+    <col min="4104" max="4352" width="9" style="27"/>
+    <col min="4353" max="4353" width="1.625" style="27" customWidth="1"/>
+    <col min="4354" max="4354" width="6.625" style="27" customWidth="1"/>
+    <col min="4355" max="4355" width="25.125" style="27" customWidth="1"/>
+    <col min="4356" max="4356" width="24.625" style="27" customWidth="1"/>
+    <col min="4357" max="4357" width="8.625" style="27" customWidth="1"/>
+    <col min="4358" max="4359" width="11.125" style="27" customWidth="1"/>
+    <col min="4360" max="4608" width="9" style="27"/>
+    <col min="4609" max="4609" width="1.625" style="27" customWidth="1"/>
+    <col min="4610" max="4610" width="6.625" style="27" customWidth="1"/>
+    <col min="4611" max="4611" width="25.125" style="27" customWidth="1"/>
+    <col min="4612" max="4612" width="24.625" style="27" customWidth="1"/>
+    <col min="4613" max="4613" width="8.625" style="27" customWidth="1"/>
+    <col min="4614" max="4615" width="11.125" style="27" customWidth="1"/>
+    <col min="4616" max="4864" width="9" style="27"/>
+    <col min="4865" max="4865" width="1.625" style="27" customWidth="1"/>
+    <col min="4866" max="4866" width="6.625" style="27" customWidth="1"/>
+    <col min="4867" max="4867" width="25.125" style="27" customWidth="1"/>
+    <col min="4868" max="4868" width="24.625" style="27" customWidth="1"/>
+    <col min="4869" max="4869" width="8.625" style="27" customWidth="1"/>
+    <col min="4870" max="4871" width="11.125" style="27" customWidth="1"/>
+    <col min="4872" max="5120" width="9" style="27"/>
+    <col min="5121" max="5121" width="1.625" style="27" customWidth="1"/>
+    <col min="5122" max="5122" width="6.625" style="27" customWidth="1"/>
+    <col min="5123" max="5123" width="25.125" style="27" customWidth="1"/>
+    <col min="5124" max="5124" width="24.625" style="27" customWidth="1"/>
+    <col min="5125" max="5125" width="8.625" style="27" customWidth="1"/>
+    <col min="5126" max="5127" width="11.125" style="27" customWidth="1"/>
+    <col min="5128" max="5376" width="9" style="27"/>
+    <col min="5377" max="5377" width="1.625" style="27" customWidth="1"/>
+    <col min="5378" max="5378" width="6.625" style="27" customWidth="1"/>
+    <col min="5379" max="5379" width="25.125" style="27" customWidth="1"/>
+    <col min="5380" max="5380" width="24.625" style="27" customWidth="1"/>
+    <col min="5381" max="5381" width="8.625" style="27" customWidth="1"/>
+    <col min="5382" max="5383" width="11.125" style="27" customWidth="1"/>
+    <col min="5384" max="5632" width="9" style="27"/>
+    <col min="5633" max="5633" width="1.625" style="27" customWidth="1"/>
+    <col min="5634" max="5634" width="6.625" style="27" customWidth="1"/>
+    <col min="5635" max="5635" width="25.125" style="27" customWidth="1"/>
+    <col min="5636" max="5636" width="24.625" style="27" customWidth="1"/>
+    <col min="5637" max="5637" width="8.625" style="27" customWidth="1"/>
+    <col min="5638" max="5639" width="11.125" style="27" customWidth="1"/>
+    <col min="5640" max="5888" width="9" style="27"/>
+    <col min="5889" max="5889" width="1.625" style="27" customWidth="1"/>
+    <col min="5890" max="5890" width="6.625" style="27" customWidth="1"/>
+    <col min="5891" max="5891" width="25.125" style="27" customWidth="1"/>
+    <col min="5892" max="5892" width="24.625" style="27" customWidth="1"/>
+    <col min="5893" max="5893" width="8.625" style="27" customWidth="1"/>
+    <col min="5894" max="5895" width="11.125" style="27" customWidth="1"/>
+    <col min="5896" max="6144" width="9" style="27"/>
+    <col min="6145" max="6145" width="1.625" style="27" customWidth="1"/>
+    <col min="6146" max="6146" width="6.625" style="27" customWidth="1"/>
+    <col min="6147" max="6147" width="25.125" style="27" customWidth="1"/>
+    <col min="6148" max="6148" width="24.625" style="27" customWidth="1"/>
+    <col min="6149" max="6149" width="8.625" style="27" customWidth="1"/>
+    <col min="6150" max="6151" width="11.125" style="27" customWidth="1"/>
+    <col min="6152" max="6400" width="9" style="27"/>
+    <col min="6401" max="6401" width="1.625" style="27" customWidth="1"/>
+    <col min="6402" max="6402" width="6.625" style="27" customWidth="1"/>
+    <col min="6403" max="6403" width="25.125" style="27" customWidth="1"/>
+    <col min="6404" max="6404" width="24.625" style="27" customWidth="1"/>
+    <col min="6405" max="6405" width="8.625" style="27" customWidth="1"/>
+    <col min="6406" max="6407" width="11.125" style="27" customWidth="1"/>
+    <col min="6408" max="6656" width="9" style="27"/>
+    <col min="6657" max="6657" width="1.625" style="27" customWidth="1"/>
+    <col min="6658" max="6658" width="6.625" style="27" customWidth="1"/>
+    <col min="6659" max="6659" width="25.125" style="27" customWidth="1"/>
+    <col min="6660" max="6660" width="24.625" style="27" customWidth="1"/>
+    <col min="6661" max="6661" width="8.625" style="27" customWidth="1"/>
+    <col min="6662" max="6663" width="11.125" style="27" customWidth="1"/>
+    <col min="6664" max="6912" width="9" style="27"/>
+    <col min="6913" max="6913" width="1.625" style="27" customWidth="1"/>
+    <col min="6914" max="6914" width="6.625" style="27" customWidth="1"/>
+    <col min="6915" max="6915" width="25.125" style="27" customWidth="1"/>
+    <col min="6916" max="6916" width="24.625" style="27" customWidth="1"/>
+    <col min="6917" max="6917" width="8.625" style="27" customWidth="1"/>
+    <col min="6918" max="6919" width="11.125" style="27" customWidth="1"/>
+    <col min="6920" max="7168" width="9" style="27"/>
+    <col min="7169" max="7169" width="1.625" style="27" customWidth="1"/>
+    <col min="7170" max="7170" width="6.625" style="27" customWidth="1"/>
+    <col min="7171" max="7171" width="25.125" style="27" customWidth="1"/>
+    <col min="7172" max="7172" width="24.625" style="27" customWidth="1"/>
+    <col min="7173" max="7173" width="8.625" style="27" customWidth="1"/>
+    <col min="7174" max="7175" width="11.125" style="27" customWidth="1"/>
+    <col min="7176" max="7424" width="9" style="27"/>
+    <col min="7425" max="7425" width="1.625" style="27" customWidth="1"/>
+    <col min="7426" max="7426" width="6.625" style="27" customWidth="1"/>
+    <col min="7427" max="7427" width="25.125" style="27" customWidth="1"/>
+    <col min="7428" max="7428" width="24.625" style="27" customWidth="1"/>
+    <col min="7429" max="7429" width="8.625" style="27" customWidth="1"/>
+    <col min="7430" max="7431" width="11.125" style="27" customWidth="1"/>
+    <col min="7432" max="7680" width="9" style="27"/>
+    <col min="7681" max="7681" width="1.625" style="27" customWidth="1"/>
+    <col min="7682" max="7682" width="6.625" style="27" customWidth="1"/>
+    <col min="7683" max="7683" width="25.125" style="27" customWidth="1"/>
+    <col min="7684" max="7684" width="24.625" style="27" customWidth="1"/>
+    <col min="7685" max="7685" width="8.625" style="27" customWidth="1"/>
+    <col min="7686" max="7687" width="11.125" style="27" customWidth="1"/>
+    <col min="7688" max="7936" width="9" style="27"/>
+    <col min="7937" max="7937" width="1.625" style="27" customWidth="1"/>
+    <col min="7938" max="7938" width="6.625" style="27" customWidth="1"/>
+    <col min="7939" max="7939" width="25.125" style="27" customWidth="1"/>
+    <col min="7940" max="7940" width="24.625" style="27" customWidth="1"/>
+    <col min="7941" max="7941" width="8.625" style="27" customWidth="1"/>
+    <col min="7942" max="7943" width="11.125" style="27" customWidth="1"/>
+    <col min="7944" max="8192" width="9" style="27"/>
+    <col min="8193" max="8193" width="1.625" style="27" customWidth="1"/>
+    <col min="8194" max="8194" width="6.625" style="27" customWidth="1"/>
+    <col min="8195" max="8195" width="25.125" style="27" customWidth="1"/>
+    <col min="8196" max="8196" width="24.625" style="27" customWidth="1"/>
+    <col min="8197" max="8197" width="8.625" style="27" customWidth="1"/>
+    <col min="8198" max="8199" width="11.125" style="27" customWidth="1"/>
+    <col min="8200" max="8448" width="9" style="27"/>
+    <col min="8449" max="8449" width="1.625" style="27" customWidth="1"/>
+    <col min="8450" max="8450" width="6.625" style="27" customWidth="1"/>
+    <col min="8451" max="8451" width="25.125" style="27" customWidth="1"/>
+    <col min="8452" max="8452" width="24.625" style="27" customWidth="1"/>
+    <col min="8453" max="8453" width="8.625" style="27" customWidth="1"/>
+    <col min="8454" max="8455" width="11.125" style="27" customWidth="1"/>
+    <col min="8456" max="8704" width="9" style="27"/>
+    <col min="8705" max="8705" width="1.625" style="27" customWidth="1"/>
+    <col min="8706" max="8706" width="6.625" style="27" customWidth="1"/>
+    <col min="8707" max="8707" width="25.125" style="27" customWidth="1"/>
+    <col min="8708" max="8708" width="24.625" style="27" customWidth="1"/>
+    <col min="8709" max="8709" width="8.625" style="27" customWidth="1"/>
+    <col min="8710" max="8711" width="11.125" style="27" customWidth="1"/>
+    <col min="8712" max="8960" width="9" style="27"/>
+    <col min="8961" max="8961" width="1.625" style="27" customWidth="1"/>
+    <col min="8962" max="8962" width="6.625" style="27" customWidth="1"/>
+    <col min="8963" max="8963" width="25.125" style="27" customWidth="1"/>
+    <col min="8964" max="8964" width="24.625" style="27" customWidth="1"/>
+    <col min="8965" max="8965" width="8.625" style="27" customWidth="1"/>
+    <col min="8966" max="8967" width="11.125" style="27" customWidth="1"/>
+    <col min="8968" max="9216" width="9" style="27"/>
+    <col min="9217" max="9217" width="1.625" style="27" customWidth="1"/>
+    <col min="9218" max="9218" width="6.625" style="27" customWidth="1"/>
+    <col min="9219" max="9219" width="25.125" style="27" customWidth="1"/>
+    <col min="9220" max="9220" width="24.625" style="27" customWidth="1"/>
+    <col min="9221" max="9221" width="8.625" style="27" customWidth="1"/>
+    <col min="9222" max="9223" width="11.125" style="27" customWidth="1"/>
+    <col min="9224" max="9472" width="9" style="27"/>
+    <col min="9473" max="9473" width="1.625" style="27" customWidth="1"/>
+    <col min="9474" max="9474" width="6.625" style="27" customWidth="1"/>
+    <col min="9475" max="9475" width="25.125" style="27" customWidth="1"/>
+    <col min="9476" max="9476" width="24.625" style="27" customWidth="1"/>
+    <col min="9477" max="9477" width="8.625" style="27" customWidth="1"/>
+    <col min="9478" max="9479" width="11.125" style="27" customWidth="1"/>
+    <col min="9480" max="9728" width="9" style="27"/>
+    <col min="9729" max="9729" width="1.625" style="27" customWidth="1"/>
+    <col min="9730" max="9730" width="6.625" style="27" customWidth="1"/>
+    <col min="9731" max="9731" width="25.125" style="27" customWidth="1"/>
+    <col min="9732" max="9732" width="24.625" style="27" customWidth="1"/>
+    <col min="9733" max="9733" width="8.625" style="27" customWidth="1"/>
+    <col min="9734" max="9735" width="11.125" style="27" customWidth="1"/>
+    <col min="9736" max="9984" width="9" style="27"/>
+    <col min="9985" max="9985" width="1.625" style="27" customWidth="1"/>
+    <col min="9986" max="9986" width="6.625" style="27" customWidth="1"/>
+    <col min="9987" max="9987" width="25.125" style="27" customWidth="1"/>
+    <col min="9988" max="9988" width="24.625" style="27" customWidth="1"/>
+    <col min="9989" max="9989" width="8.625" style="27" customWidth="1"/>
+    <col min="9990" max="9991" width="11.125" style="27" customWidth="1"/>
+    <col min="9992" max="10240" width="9" style="27"/>
+    <col min="10241" max="10241" width="1.625" style="27" customWidth="1"/>
+    <col min="10242" max="10242" width="6.625" style="27" customWidth="1"/>
+    <col min="10243" max="10243" width="25.125" style="27" customWidth="1"/>
+    <col min="10244" max="10244" width="24.625" style="27" customWidth="1"/>
+    <col min="10245" max="10245" width="8.625" style="27" customWidth="1"/>
+    <col min="10246" max="10247" width="11.125" style="27" customWidth="1"/>
+    <col min="10248" max="10496" width="9" style="27"/>
+    <col min="10497" max="10497" width="1.625" style="27" customWidth="1"/>
+    <col min="10498" max="10498" width="6.625" style="27" customWidth="1"/>
+    <col min="10499" max="10499" width="25.125" style="27" customWidth="1"/>
+    <col min="10500" max="10500" width="24.625" style="27" customWidth="1"/>
+    <col min="10501" max="10501" width="8.625" style="27" customWidth="1"/>
+    <col min="10502" max="10503" width="11.125" style="27" customWidth="1"/>
+    <col min="10504" max="10752" width="9" style="27"/>
+    <col min="10753" max="10753" width="1.625" style="27" customWidth="1"/>
+    <col min="10754" max="10754" width="6.625" style="27" customWidth="1"/>
+    <col min="10755" max="10755" width="25.125" style="27" customWidth="1"/>
+    <col min="10756" max="10756" width="24.625" style="27" customWidth="1"/>
+    <col min="10757" max="10757" width="8.625" style="27" customWidth="1"/>
+    <col min="10758" max="10759" width="11.125" style="27" customWidth="1"/>
+    <col min="10760" max="11008" width="9" style="27"/>
+    <col min="11009" max="11009" width="1.625" style="27" customWidth="1"/>
+    <col min="11010" max="11010" width="6.625" style="27" customWidth="1"/>
+    <col min="11011" max="11011" width="25.125" style="27" customWidth="1"/>
+    <col min="11012" max="11012" width="24.625" style="27" customWidth="1"/>
+    <col min="11013" max="11013" width="8.625" style="27" customWidth="1"/>
+    <col min="11014" max="11015" width="11.125" style="27" customWidth="1"/>
+    <col min="11016" max="11264" width="9" style="27"/>
+    <col min="11265" max="11265" width="1.625" style="27" customWidth="1"/>
+    <col min="11266" max="11266" width="6.625" style="27" customWidth="1"/>
+    <col min="11267" max="11267" width="25.125" style="27" customWidth="1"/>
+    <col min="11268" max="11268" width="24.625" style="27" customWidth="1"/>
+    <col min="11269" max="11269" width="8.625" style="27" customWidth="1"/>
+    <col min="11270" max="11271" width="11.125" style="27" customWidth="1"/>
+    <col min="11272" max="11520" width="9" style="27"/>
+    <col min="11521" max="11521" width="1.625" style="27" customWidth="1"/>
+    <col min="11522" max="11522" width="6.625" style="27" customWidth="1"/>
+    <col min="11523" max="11523" width="25.125" style="27" customWidth="1"/>
+    <col min="11524" max="11524" width="24.625" style="27" customWidth="1"/>
+    <col min="11525" max="11525" width="8.625" style="27" customWidth="1"/>
+    <col min="11526" max="11527" width="11.125" style="27" customWidth="1"/>
+    <col min="11528" max="11776" width="9" style="27"/>
+    <col min="11777" max="11777" width="1.625" style="27" customWidth="1"/>
+    <col min="11778" max="11778" width="6.625" style="27" customWidth="1"/>
+    <col min="11779" max="11779" width="25.125" style="27" customWidth="1"/>
+    <col min="11780" max="11780" width="24.625" style="27" customWidth="1"/>
+    <col min="11781" max="11781" width="8.625" style="27" customWidth="1"/>
+    <col min="11782" max="11783" width="11.125" style="27" customWidth="1"/>
+    <col min="11784" max="12032" width="9" style="27"/>
+    <col min="12033" max="12033" width="1.625" style="27" customWidth="1"/>
+    <col min="12034" max="12034" width="6.625" style="27" customWidth="1"/>
+    <col min="12035" max="12035" width="25.125" style="27" customWidth="1"/>
+    <col min="12036" max="12036" width="24.625" style="27" customWidth="1"/>
+    <col min="12037" max="12037" width="8.625" style="27" customWidth="1"/>
+    <col min="12038" max="12039" width="11.125" style="27" customWidth="1"/>
+    <col min="12040" max="12288" width="9" style="27"/>
+    <col min="12289" max="12289" width="1.625" style="27" customWidth="1"/>
+    <col min="12290" max="12290" width="6.625" style="27" customWidth="1"/>
+    <col min="12291" max="12291" width="25.125" style="27" customWidth="1"/>
+    <col min="12292" max="12292" width="24.625" style="27" customWidth="1"/>
+    <col min="12293" max="12293" width="8.625" style="27" customWidth="1"/>
+    <col min="12294" max="12295" width="11.125" style="27" customWidth="1"/>
+    <col min="12296" max="12544" width="9" style="27"/>
+    <col min="12545" max="12545" width="1.625" style="27" customWidth="1"/>
+    <col min="12546" max="12546" width="6.625" style="27" customWidth="1"/>
+    <col min="12547" max="12547" width="25.125" style="27" customWidth="1"/>
+    <col min="12548" max="12548" width="24.625" style="27" customWidth="1"/>
+    <col min="12549" max="12549" width="8.625" style="27" customWidth="1"/>
+    <col min="12550" max="12551" width="11.125" style="27" customWidth="1"/>
+    <col min="12552" max="12800" width="9" style="27"/>
+    <col min="12801" max="12801" width="1.625" style="27" customWidth="1"/>
+    <col min="12802" max="12802" width="6.625" style="27" customWidth="1"/>
+    <col min="12803" max="12803" width="25.125" style="27" customWidth="1"/>
+    <col min="12804" max="12804" width="24.625" style="27" customWidth="1"/>
+    <col min="12805" max="12805" width="8.625" style="27" customWidth="1"/>
+    <col min="12806" max="12807" width="11.125" style="27" customWidth="1"/>
+    <col min="12808" max="13056" width="9" style="27"/>
+    <col min="13057" max="13057" width="1.625" style="27" customWidth="1"/>
+    <col min="13058" max="13058" width="6.625" style="27" customWidth="1"/>
+    <col min="13059" max="13059" width="25.125" style="27" customWidth="1"/>
+    <col min="13060" max="13060" width="24.625" style="27" customWidth="1"/>
+    <col min="13061" max="13061" width="8.625" style="27" customWidth="1"/>
+    <col min="13062" max="13063" width="11.125" style="27" customWidth="1"/>
+    <col min="13064" max="13312" width="9" style="27"/>
+    <col min="13313" max="13313" width="1.625" style="27" customWidth="1"/>
+    <col min="13314" max="13314" width="6.625" style="27" customWidth="1"/>
+    <col min="13315" max="13315" width="25.125" style="27" customWidth="1"/>
+    <col min="13316" max="13316" width="24.625" style="27" customWidth="1"/>
+    <col min="13317" max="13317" width="8.625" style="27" customWidth="1"/>
+    <col min="13318" max="13319" width="11.125" style="27" customWidth="1"/>
+    <col min="13320" max="13568" width="9" style="27"/>
+    <col min="13569" max="13569" width="1.625" style="27" customWidth="1"/>
+    <col min="13570" max="13570" width="6.625" style="27" customWidth="1"/>
+    <col min="13571" max="13571" width="25.125" style="27" customWidth="1"/>
+    <col min="13572" max="13572" width="24.625" style="27" customWidth="1"/>
+    <col min="13573" max="13573" width="8.625" style="27" customWidth="1"/>
+    <col min="13574" max="13575" width="11.125" style="27" customWidth="1"/>
+    <col min="13576" max="13824" width="9" style="27"/>
+    <col min="13825" max="13825" width="1.625" style="27" customWidth="1"/>
+    <col min="13826" max="13826" width="6.625" style="27" customWidth="1"/>
+    <col min="13827" max="13827" width="25.125" style="27" customWidth="1"/>
+    <col min="13828" max="13828" width="24.625" style="27" customWidth="1"/>
+    <col min="13829" max="13829" width="8.625" style="27" customWidth="1"/>
+    <col min="13830" max="13831" width="11.125" style="27" customWidth="1"/>
+    <col min="13832" max="14080" width="9" style="27"/>
+    <col min="14081" max="14081" width="1.625" style="27" customWidth="1"/>
+    <col min="14082" max="14082" width="6.625" style="27" customWidth="1"/>
+    <col min="14083" max="14083" width="25.125" style="27" customWidth="1"/>
+    <col min="14084" max="14084" width="24.625" style="27" customWidth="1"/>
+    <col min="14085" max="14085" width="8.625" style="27" customWidth="1"/>
+    <col min="14086" max="14087" width="11.125" style="27" customWidth="1"/>
+    <col min="14088" max="14336" width="9" style="27"/>
+    <col min="14337" max="14337" width="1.625" style="27" customWidth="1"/>
+    <col min="14338" max="14338" width="6.625" style="27" customWidth="1"/>
+    <col min="14339" max="14339" width="25.125" style="27" customWidth="1"/>
+    <col min="14340" max="14340" width="24.625" style="27" customWidth="1"/>
+    <col min="14341" max="14341" width="8.625" style="27" customWidth="1"/>
+    <col min="14342" max="14343" width="11.125" style="27" customWidth="1"/>
+    <col min="14344" max="14592" width="9" style="27"/>
+    <col min="14593" max="14593" width="1.625" style="27" customWidth="1"/>
+    <col min="14594" max="14594" width="6.625" style="27" customWidth="1"/>
+    <col min="14595" max="14595" width="25.125" style="27" customWidth="1"/>
+    <col min="14596" max="14596" width="24.625" style="27" customWidth="1"/>
+    <col min="14597" max="14597" width="8.625" style="27" customWidth="1"/>
+    <col min="14598" max="14599" width="11.125" style="27" customWidth="1"/>
+    <col min="14600" max="14848" width="9" style="27"/>
+    <col min="14849" max="14849" width="1.625" style="27" customWidth="1"/>
+    <col min="14850" max="14850" width="6.625" style="27" customWidth="1"/>
+    <col min="14851" max="14851" width="25.125" style="27" customWidth="1"/>
+    <col min="14852" max="14852" width="24.625" style="27" customWidth="1"/>
+    <col min="14853" max="14853" width="8.625" style="27" customWidth="1"/>
+    <col min="14854" max="14855" width="11.125" style="27" customWidth="1"/>
+    <col min="14856" max="15104" width="9" style="27"/>
+    <col min="15105" max="15105" width="1.625" style="27" customWidth="1"/>
+    <col min="15106" max="15106" width="6.625" style="27" customWidth="1"/>
+    <col min="15107" max="15107" width="25.125" style="27" customWidth="1"/>
+    <col min="15108" max="15108" width="24.625" style="27" customWidth="1"/>
+    <col min="15109" max="15109" width="8.625" style="27" customWidth="1"/>
+    <col min="15110" max="15111" width="11.125" style="27" customWidth="1"/>
+    <col min="15112" max="15360" width="9" style="27"/>
+    <col min="15361" max="15361" width="1.625" style="27" customWidth="1"/>
+    <col min="15362" max="15362" width="6.625" style="27" customWidth="1"/>
+    <col min="15363" max="15363" width="25.125" style="27" customWidth="1"/>
+    <col min="15364" max="15364" width="24.625" style="27" customWidth="1"/>
+    <col min="15365" max="15365" width="8.625" style="27" customWidth="1"/>
+    <col min="15366" max="15367" width="11.125" style="27" customWidth="1"/>
+    <col min="15368" max="15616" width="9" style="27"/>
+    <col min="15617" max="15617" width="1.625" style="27" customWidth="1"/>
+    <col min="15618" max="15618" width="6.625" style="27" customWidth="1"/>
+    <col min="15619" max="15619" width="25.125" style="27" customWidth="1"/>
+    <col min="15620" max="15620" width="24.625" style="27" customWidth="1"/>
+    <col min="15621" max="15621" width="8.625" style="27" customWidth="1"/>
+    <col min="15622" max="15623" width="11.125" style="27" customWidth="1"/>
+    <col min="15624" max="15872" width="9" style="27"/>
+    <col min="15873" max="15873" width="1.625" style="27" customWidth="1"/>
+    <col min="15874" max="15874" width="6.625" style="27" customWidth="1"/>
+    <col min="15875" max="15875" width="25.125" style="27" customWidth="1"/>
+    <col min="15876" max="15876" width="24.625" style="27" customWidth="1"/>
+    <col min="15877" max="15877" width="8.625" style="27" customWidth="1"/>
+    <col min="15878" max="15879" width="11.125" style="27" customWidth="1"/>
+    <col min="15880" max="16128" width="9" style="27"/>
+    <col min="16129" max="16129" width="1.625" style="27" customWidth="1"/>
+    <col min="16130" max="16130" width="6.625" style="27" customWidth="1"/>
+    <col min="16131" max="16131" width="25.125" style="27" customWidth="1"/>
+    <col min="16132" max="16132" width="24.625" style="27" customWidth="1"/>
+    <col min="16133" max="16133" width="8.625" style="27" customWidth="1"/>
+    <col min="16134" max="16135" width="11.125" style="27" customWidth="1"/>
+    <col min="16136" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="6" customHeight="1">
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+    </row>
+    <row r="2" spans="1:7" ht="17.25">
+      <c r="A2" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="6" customHeight="1">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.25">
+      <c r="A5" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" thickBot="1">
+      <c r="A6" s="17"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" thickBot="1">
+      <c r="A7" s="59"/>
+      <c r="B7" s="109" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="110" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="110" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="110" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="110" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="111" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
+      <c r="A8" s="35"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="63"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.1" customHeight="1">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" ht="6" customHeight="1">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.25">
+      <c r="A12" s="32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" thickBot="1">
+      <c r="A13" s="17"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" thickBot="1">
+      <c r="A14" s="59"/>
+      <c r="B14" s="109" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="112" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="112" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="111" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.1" customHeight="1">
+      <c r="A15" s="35"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="65"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.1" customHeight="1">
+      <c r="A16" s="35"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="65"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.1" customHeight="1">
+      <c r="A17" s="35"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="65"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
+      <c r="A18" s="35"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="63"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.78740157480314965" right="0.59055118110236227" top="0.86614173228346458" bottom="0.78740157480314965" header="0.47244094488188981" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter xml:space="preserve">&amp;C&amp;10　
+&amp;R&amp;10
+</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="15"/>
-    <col min="2" max="2" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.625" style="15" customWidth="1"/>
     <col min="4" max="4" width="7.625" style="15" customWidth="1"/>
     <col min="5" max="257" width="9" style="15"/>
@@ -5281,18 +6788,33 @@
       <c r="H10" s="23"/>
       <c r="I10" s="91"/>
     </row>
-    <row r="11" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B11" s="92"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="97"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="17"/>
+    <row r="11" spans="1:9">
+      <c r="B11" s="90">
+        <v>45575</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="91"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.25" thickBot="1">
+      <c r="B12" s="92"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="97"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="17"/>
@@ -5302,6 +6824,9 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="17"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -5636,6 +7161,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
+    <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F13"/>
@@ -5731,12 +7257,16 @@
       </c>
       <c r="F8" s="83"/>
     </row>
-    <row r="9" spans="1:6" s="84" customFormat="1" ht="11.25">
+    <row r="9" spans="1:6" s="84" customFormat="1">
       <c r="A9" s="83"/>
       <c r="B9" s="83"/>
       <c r="C9" s="83"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="86"/>
+      <c r="D9" s="114" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" s="122" t="s">
+        <v>189</v>
+      </c>
       <c r="F9" s="83"/>
     </row>
     <row r="10" spans="1:6" s="84" customFormat="1" ht="11.25">
@@ -5776,6 +7306,7 @@
   <hyperlinks>
     <hyperlink ref="D7" location="'テスト仕様_テスト結果(テスト・シナリオ1)'!A1" display="シナリオ1"/>
     <hyperlink ref="D8" location="'テスト仕様_テスト結果(テスト・シナリオ2)'!A1" display="シナリオ2"/>
+    <hyperlink ref="D9" location="'テスト仕様_テスト結果(テスト・シナリオ2)'!A1" display="シナリオ2"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
@@ -8744,6 +10275,842 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7">
+    <tabColor rgb="FFFF99CC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="27" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="27" customWidth="1"/>
+    <col min="10" max="256" width="8.875" style="27"/>
+    <col min="257" max="257" width="3.125" style="27" customWidth="1"/>
+    <col min="258" max="258" width="9.75" style="27" customWidth="1"/>
+    <col min="259" max="259" width="40.125" style="27" customWidth="1"/>
+    <col min="260" max="260" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="261" max="262" width="21.625" style="27" customWidth="1"/>
+    <col min="263" max="263" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="10.125" style="27" customWidth="1"/>
+    <col min="265" max="265" width="11.625" style="27" customWidth="1"/>
+    <col min="266" max="512" width="8.875" style="27"/>
+    <col min="513" max="513" width="3.125" style="27" customWidth="1"/>
+    <col min="514" max="514" width="9.75" style="27" customWidth="1"/>
+    <col min="515" max="515" width="40.125" style="27" customWidth="1"/>
+    <col min="516" max="516" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="517" max="518" width="21.625" style="27" customWidth="1"/>
+    <col min="519" max="519" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="10.125" style="27" customWidth="1"/>
+    <col min="521" max="521" width="11.625" style="27" customWidth="1"/>
+    <col min="522" max="768" width="8.875" style="27"/>
+    <col min="769" max="769" width="3.125" style="27" customWidth="1"/>
+    <col min="770" max="770" width="9.75" style="27" customWidth="1"/>
+    <col min="771" max="771" width="40.125" style="27" customWidth="1"/>
+    <col min="772" max="772" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="773" max="774" width="21.625" style="27" customWidth="1"/>
+    <col min="775" max="775" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="10.125" style="27" customWidth="1"/>
+    <col min="777" max="777" width="11.625" style="27" customWidth="1"/>
+    <col min="778" max="1024" width="8.875" style="27"/>
+    <col min="1025" max="1025" width="3.125" style="27" customWidth="1"/>
+    <col min="1026" max="1026" width="9.75" style="27" customWidth="1"/>
+    <col min="1027" max="1027" width="40.125" style="27" customWidth="1"/>
+    <col min="1028" max="1028" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1030" width="21.625" style="27" customWidth="1"/>
+    <col min="1031" max="1031" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="10.125" style="27" customWidth="1"/>
+    <col min="1033" max="1033" width="11.625" style="27" customWidth="1"/>
+    <col min="1034" max="1280" width="8.875" style="27"/>
+    <col min="1281" max="1281" width="3.125" style="27" customWidth="1"/>
+    <col min="1282" max="1282" width="9.75" style="27" customWidth="1"/>
+    <col min="1283" max="1283" width="40.125" style="27" customWidth="1"/>
+    <col min="1284" max="1284" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1286" width="21.625" style="27" customWidth="1"/>
+    <col min="1287" max="1287" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="10.125" style="27" customWidth="1"/>
+    <col min="1289" max="1289" width="11.625" style="27" customWidth="1"/>
+    <col min="1290" max="1536" width="8.875" style="27"/>
+    <col min="1537" max="1537" width="3.125" style="27" customWidth="1"/>
+    <col min="1538" max="1538" width="9.75" style="27" customWidth="1"/>
+    <col min="1539" max="1539" width="40.125" style="27" customWidth="1"/>
+    <col min="1540" max="1540" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1542" width="21.625" style="27" customWidth="1"/>
+    <col min="1543" max="1543" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="10.125" style="27" customWidth="1"/>
+    <col min="1545" max="1545" width="11.625" style="27" customWidth="1"/>
+    <col min="1546" max="1792" width="8.875" style="27"/>
+    <col min="1793" max="1793" width="3.125" style="27" customWidth="1"/>
+    <col min="1794" max="1794" width="9.75" style="27" customWidth="1"/>
+    <col min="1795" max="1795" width="40.125" style="27" customWidth="1"/>
+    <col min="1796" max="1796" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1798" width="21.625" style="27" customWidth="1"/>
+    <col min="1799" max="1799" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="10.125" style="27" customWidth="1"/>
+    <col min="1801" max="1801" width="11.625" style="27" customWidth="1"/>
+    <col min="1802" max="2048" width="8.875" style="27"/>
+    <col min="2049" max="2049" width="3.125" style="27" customWidth="1"/>
+    <col min="2050" max="2050" width="9.75" style="27" customWidth="1"/>
+    <col min="2051" max="2051" width="40.125" style="27" customWidth="1"/>
+    <col min="2052" max="2052" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2054" width="21.625" style="27" customWidth="1"/>
+    <col min="2055" max="2055" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="10.125" style="27" customWidth="1"/>
+    <col min="2057" max="2057" width="11.625" style="27" customWidth="1"/>
+    <col min="2058" max="2304" width="8.875" style="27"/>
+    <col min="2305" max="2305" width="3.125" style="27" customWidth="1"/>
+    <col min="2306" max="2306" width="9.75" style="27" customWidth="1"/>
+    <col min="2307" max="2307" width="40.125" style="27" customWidth="1"/>
+    <col min="2308" max="2308" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2310" width="21.625" style="27" customWidth="1"/>
+    <col min="2311" max="2311" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="10.125" style="27" customWidth="1"/>
+    <col min="2313" max="2313" width="11.625" style="27" customWidth="1"/>
+    <col min="2314" max="2560" width="8.875" style="27"/>
+    <col min="2561" max="2561" width="3.125" style="27" customWidth="1"/>
+    <col min="2562" max="2562" width="9.75" style="27" customWidth="1"/>
+    <col min="2563" max="2563" width="40.125" style="27" customWidth="1"/>
+    <col min="2564" max="2564" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2566" width="21.625" style="27" customWidth="1"/>
+    <col min="2567" max="2567" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="10.125" style="27" customWidth="1"/>
+    <col min="2569" max="2569" width="11.625" style="27" customWidth="1"/>
+    <col min="2570" max="2816" width="8.875" style="27"/>
+    <col min="2817" max="2817" width="3.125" style="27" customWidth="1"/>
+    <col min="2818" max="2818" width="9.75" style="27" customWidth="1"/>
+    <col min="2819" max="2819" width="40.125" style="27" customWidth="1"/>
+    <col min="2820" max="2820" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2822" width="21.625" style="27" customWidth="1"/>
+    <col min="2823" max="2823" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="10.125" style="27" customWidth="1"/>
+    <col min="2825" max="2825" width="11.625" style="27" customWidth="1"/>
+    <col min="2826" max="3072" width="8.875" style="27"/>
+    <col min="3073" max="3073" width="3.125" style="27" customWidth="1"/>
+    <col min="3074" max="3074" width="9.75" style="27" customWidth="1"/>
+    <col min="3075" max="3075" width="40.125" style="27" customWidth="1"/>
+    <col min="3076" max="3076" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3078" width="21.625" style="27" customWidth="1"/>
+    <col min="3079" max="3079" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="10.125" style="27" customWidth="1"/>
+    <col min="3081" max="3081" width="11.625" style="27" customWidth="1"/>
+    <col min="3082" max="3328" width="8.875" style="27"/>
+    <col min="3329" max="3329" width="3.125" style="27" customWidth="1"/>
+    <col min="3330" max="3330" width="9.75" style="27" customWidth="1"/>
+    <col min="3331" max="3331" width="40.125" style="27" customWidth="1"/>
+    <col min="3332" max="3332" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3334" width="21.625" style="27" customWidth="1"/>
+    <col min="3335" max="3335" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="10.125" style="27" customWidth="1"/>
+    <col min="3337" max="3337" width="11.625" style="27" customWidth="1"/>
+    <col min="3338" max="3584" width="8.875" style="27"/>
+    <col min="3585" max="3585" width="3.125" style="27" customWidth="1"/>
+    <col min="3586" max="3586" width="9.75" style="27" customWidth="1"/>
+    <col min="3587" max="3587" width="40.125" style="27" customWidth="1"/>
+    <col min="3588" max="3588" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3590" width="21.625" style="27" customWidth="1"/>
+    <col min="3591" max="3591" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="10.125" style="27" customWidth="1"/>
+    <col min="3593" max="3593" width="11.625" style="27" customWidth="1"/>
+    <col min="3594" max="3840" width="8.875" style="27"/>
+    <col min="3841" max="3841" width="3.125" style="27" customWidth="1"/>
+    <col min="3842" max="3842" width="9.75" style="27" customWidth="1"/>
+    <col min="3843" max="3843" width="40.125" style="27" customWidth="1"/>
+    <col min="3844" max="3844" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3846" width="21.625" style="27" customWidth="1"/>
+    <col min="3847" max="3847" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="10.125" style="27" customWidth="1"/>
+    <col min="3849" max="3849" width="11.625" style="27" customWidth="1"/>
+    <col min="3850" max="4096" width="8.875" style="27"/>
+    <col min="4097" max="4097" width="3.125" style="27" customWidth="1"/>
+    <col min="4098" max="4098" width="9.75" style="27" customWidth="1"/>
+    <col min="4099" max="4099" width="40.125" style="27" customWidth="1"/>
+    <col min="4100" max="4100" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4102" width="21.625" style="27" customWidth="1"/>
+    <col min="4103" max="4103" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="10.125" style="27" customWidth="1"/>
+    <col min="4105" max="4105" width="11.625" style="27" customWidth="1"/>
+    <col min="4106" max="4352" width="8.875" style="27"/>
+    <col min="4353" max="4353" width="3.125" style="27" customWidth="1"/>
+    <col min="4354" max="4354" width="9.75" style="27" customWidth="1"/>
+    <col min="4355" max="4355" width="40.125" style="27" customWidth="1"/>
+    <col min="4356" max="4356" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4358" width="21.625" style="27" customWidth="1"/>
+    <col min="4359" max="4359" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="10.125" style="27" customWidth="1"/>
+    <col min="4361" max="4361" width="11.625" style="27" customWidth="1"/>
+    <col min="4362" max="4608" width="8.875" style="27"/>
+    <col min="4609" max="4609" width="3.125" style="27" customWidth="1"/>
+    <col min="4610" max="4610" width="9.75" style="27" customWidth="1"/>
+    <col min="4611" max="4611" width="40.125" style="27" customWidth="1"/>
+    <col min="4612" max="4612" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4614" width="21.625" style="27" customWidth="1"/>
+    <col min="4615" max="4615" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="10.125" style="27" customWidth="1"/>
+    <col min="4617" max="4617" width="11.625" style="27" customWidth="1"/>
+    <col min="4618" max="4864" width="8.875" style="27"/>
+    <col min="4865" max="4865" width="3.125" style="27" customWidth="1"/>
+    <col min="4866" max="4866" width="9.75" style="27" customWidth="1"/>
+    <col min="4867" max="4867" width="40.125" style="27" customWidth="1"/>
+    <col min="4868" max="4868" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4870" width="21.625" style="27" customWidth="1"/>
+    <col min="4871" max="4871" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="10.125" style="27" customWidth="1"/>
+    <col min="4873" max="4873" width="11.625" style="27" customWidth="1"/>
+    <col min="4874" max="5120" width="8.875" style="27"/>
+    <col min="5121" max="5121" width="3.125" style="27" customWidth="1"/>
+    <col min="5122" max="5122" width="9.75" style="27" customWidth="1"/>
+    <col min="5123" max="5123" width="40.125" style="27" customWidth="1"/>
+    <col min="5124" max="5124" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5126" width="21.625" style="27" customWidth="1"/>
+    <col min="5127" max="5127" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="10.125" style="27" customWidth="1"/>
+    <col min="5129" max="5129" width="11.625" style="27" customWidth="1"/>
+    <col min="5130" max="5376" width="8.875" style="27"/>
+    <col min="5377" max="5377" width="3.125" style="27" customWidth="1"/>
+    <col min="5378" max="5378" width="9.75" style="27" customWidth="1"/>
+    <col min="5379" max="5379" width="40.125" style="27" customWidth="1"/>
+    <col min="5380" max="5380" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5382" width="21.625" style="27" customWidth="1"/>
+    <col min="5383" max="5383" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="10.125" style="27" customWidth="1"/>
+    <col min="5385" max="5385" width="11.625" style="27" customWidth="1"/>
+    <col min="5386" max="5632" width="8.875" style="27"/>
+    <col min="5633" max="5633" width="3.125" style="27" customWidth="1"/>
+    <col min="5634" max="5634" width="9.75" style="27" customWidth="1"/>
+    <col min="5635" max="5635" width="40.125" style="27" customWidth="1"/>
+    <col min="5636" max="5636" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5638" width="21.625" style="27" customWidth="1"/>
+    <col min="5639" max="5639" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="10.125" style="27" customWidth="1"/>
+    <col min="5641" max="5641" width="11.625" style="27" customWidth="1"/>
+    <col min="5642" max="5888" width="8.875" style="27"/>
+    <col min="5889" max="5889" width="3.125" style="27" customWidth="1"/>
+    <col min="5890" max="5890" width="9.75" style="27" customWidth="1"/>
+    <col min="5891" max="5891" width="40.125" style="27" customWidth="1"/>
+    <col min="5892" max="5892" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5894" width="21.625" style="27" customWidth="1"/>
+    <col min="5895" max="5895" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="10.125" style="27" customWidth="1"/>
+    <col min="5897" max="5897" width="11.625" style="27" customWidth="1"/>
+    <col min="5898" max="6144" width="8.875" style="27"/>
+    <col min="6145" max="6145" width="3.125" style="27" customWidth="1"/>
+    <col min="6146" max="6146" width="9.75" style="27" customWidth="1"/>
+    <col min="6147" max="6147" width="40.125" style="27" customWidth="1"/>
+    <col min="6148" max="6148" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6150" width="21.625" style="27" customWidth="1"/>
+    <col min="6151" max="6151" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="10.125" style="27" customWidth="1"/>
+    <col min="6153" max="6153" width="11.625" style="27" customWidth="1"/>
+    <col min="6154" max="6400" width="8.875" style="27"/>
+    <col min="6401" max="6401" width="3.125" style="27" customWidth="1"/>
+    <col min="6402" max="6402" width="9.75" style="27" customWidth="1"/>
+    <col min="6403" max="6403" width="40.125" style="27" customWidth="1"/>
+    <col min="6404" max="6404" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6406" width="21.625" style="27" customWidth="1"/>
+    <col min="6407" max="6407" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="10.125" style="27" customWidth="1"/>
+    <col min="6409" max="6409" width="11.625" style="27" customWidth="1"/>
+    <col min="6410" max="6656" width="8.875" style="27"/>
+    <col min="6657" max="6657" width="3.125" style="27" customWidth="1"/>
+    <col min="6658" max="6658" width="9.75" style="27" customWidth="1"/>
+    <col min="6659" max="6659" width="40.125" style="27" customWidth="1"/>
+    <col min="6660" max="6660" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6662" width="21.625" style="27" customWidth="1"/>
+    <col min="6663" max="6663" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="10.125" style="27" customWidth="1"/>
+    <col min="6665" max="6665" width="11.625" style="27" customWidth="1"/>
+    <col min="6666" max="6912" width="8.875" style="27"/>
+    <col min="6913" max="6913" width="3.125" style="27" customWidth="1"/>
+    <col min="6914" max="6914" width="9.75" style="27" customWidth="1"/>
+    <col min="6915" max="6915" width="40.125" style="27" customWidth="1"/>
+    <col min="6916" max="6916" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6918" width="21.625" style="27" customWidth="1"/>
+    <col min="6919" max="6919" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="10.125" style="27" customWidth="1"/>
+    <col min="6921" max="6921" width="11.625" style="27" customWidth="1"/>
+    <col min="6922" max="7168" width="8.875" style="27"/>
+    <col min="7169" max="7169" width="3.125" style="27" customWidth="1"/>
+    <col min="7170" max="7170" width="9.75" style="27" customWidth="1"/>
+    <col min="7171" max="7171" width="40.125" style="27" customWidth="1"/>
+    <col min="7172" max="7172" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7174" width="21.625" style="27" customWidth="1"/>
+    <col min="7175" max="7175" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="10.125" style="27" customWidth="1"/>
+    <col min="7177" max="7177" width="11.625" style="27" customWidth="1"/>
+    <col min="7178" max="7424" width="8.875" style="27"/>
+    <col min="7425" max="7425" width="3.125" style="27" customWidth="1"/>
+    <col min="7426" max="7426" width="9.75" style="27" customWidth="1"/>
+    <col min="7427" max="7427" width="40.125" style="27" customWidth="1"/>
+    <col min="7428" max="7428" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7430" width="21.625" style="27" customWidth="1"/>
+    <col min="7431" max="7431" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="10.125" style="27" customWidth="1"/>
+    <col min="7433" max="7433" width="11.625" style="27" customWidth="1"/>
+    <col min="7434" max="7680" width="8.875" style="27"/>
+    <col min="7681" max="7681" width="3.125" style="27" customWidth="1"/>
+    <col min="7682" max="7682" width="9.75" style="27" customWidth="1"/>
+    <col min="7683" max="7683" width="40.125" style="27" customWidth="1"/>
+    <col min="7684" max="7684" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7686" width="21.625" style="27" customWidth="1"/>
+    <col min="7687" max="7687" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="10.125" style="27" customWidth="1"/>
+    <col min="7689" max="7689" width="11.625" style="27" customWidth="1"/>
+    <col min="7690" max="7936" width="8.875" style="27"/>
+    <col min="7937" max="7937" width="3.125" style="27" customWidth="1"/>
+    <col min="7938" max="7938" width="9.75" style="27" customWidth="1"/>
+    <col min="7939" max="7939" width="40.125" style="27" customWidth="1"/>
+    <col min="7940" max="7940" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7942" width="21.625" style="27" customWidth="1"/>
+    <col min="7943" max="7943" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="10.125" style="27" customWidth="1"/>
+    <col min="7945" max="7945" width="11.625" style="27" customWidth="1"/>
+    <col min="7946" max="8192" width="8.875" style="27"/>
+    <col min="8193" max="8193" width="3.125" style="27" customWidth="1"/>
+    <col min="8194" max="8194" width="9.75" style="27" customWidth="1"/>
+    <col min="8195" max="8195" width="40.125" style="27" customWidth="1"/>
+    <col min="8196" max="8196" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8198" width="21.625" style="27" customWidth="1"/>
+    <col min="8199" max="8199" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="10.125" style="27" customWidth="1"/>
+    <col min="8201" max="8201" width="11.625" style="27" customWidth="1"/>
+    <col min="8202" max="8448" width="8.875" style="27"/>
+    <col min="8449" max="8449" width="3.125" style="27" customWidth="1"/>
+    <col min="8450" max="8450" width="9.75" style="27" customWidth="1"/>
+    <col min="8451" max="8451" width="40.125" style="27" customWidth="1"/>
+    <col min="8452" max="8452" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8454" width="21.625" style="27" customWidth="1"/>
+    <col min="8455" max="8455" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="10.125" style="27" customWidth="1"/>
+    <col min="8457" max="8457" width="11.625" style="27" customWidth="1"/>
+    <col min="8458" max="8704" width="8.875" style="27"/>
+    <col min="8705" max="8705" width="3.125" style="27" customWidth="1"/>
+    <col min="8706" max="8706" width="9.75" style="27" customWidth="1"/>
+    <col min="8707" max="8707" width="40.125" style="27" customWidth="1"/>
+    <col min="8708" max="8708" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8710" width="21.625" style="27" customWidth="1"/>
+    <col min="8711" max="8711" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="10.125" style="27" customWidth="1"/>
+    <col min="8713" max="8713" width="11.625" style="27" customWidth="1"/>
+    <col min="8714" max="8960" width="8.875" style="27"/>
+    <col min="8961" max="8961" width="3.125" style="27" customWidth="1"/>
+    <col min="8962" max="8962" width="9.75" style="27" customWidth="1"/>
+    <col min="8963" max="8963" width="40.125" style="27" customWidth="1"/>
+    <col min="8964" max="8964" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8966" width="21.625" style="27" customWidth="1"/>
+    <col min="8967" max="8967" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="10.125" style="27" customWidth="1"/>
+    <col min="8969" max="8969" width="11.625" style="27" customWidth="1"/>
+    <col min="8970" max="9216" width="8.875" style="27"/>
+    <col min="9217" max="9217" width="3.125" style="27" customWidth="1"/>
+    <col min="9218" max="9218" width="9.75" style="27" customWidth="1"/>
+    <col min="9219" max="9219" width="40.125" style="27" customWidth="1"/>
+    <col min="9220" max="9220" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9222" width="21.625" style="27" customWidth="1"/>
+    <col min="9223" max="9223" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="10.125" style="27" customWidth="1"/>
+    <col min="9225" max="9225" width="11.625" style="27" customWidth="1"/>
+    <col min="9226" max="9472" width="8.875" style="27"/>
+    <col min="9473" max="9473" width="3.125" style="27" customWidth="1"/>
+    <col min="9474" max="9474" width="9.75" style="27" customWidth="1"/>
+    <col min="9475" max="9475" width="40.125" style="27" customWidth="1"/>
+    <col min="9476" max="9476" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9478" width="21.625" style="27" customWidth="1"/>
+    <col min="9479" max="9479" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="10.125" style="27" customWidth="1"/>
+    <col min="9481" max="9481" width="11.625" style="27" customWidth="1"/>
+    <col min="9482" max="9728" width="8.875" style="27"/>
+    <col min="9729" max="9729" width="3.125" style="27" customWidth="1"/>
+    <col min="9730" max="9730" width="9.75" style="27" customWidth="1"/>
+    <col min="9731" max="9731" width="40.125" style="27" customWidth="1"/>
+    <col min="9732" max="9732" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9734" width="21.625" style="27" customWidth="1"/>
+    <col min="9735" max="9735" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="10.125" style="27" customWidth="1"/>
+    <col min="9737" max="9737" width="11.625" style="27" customWidth="1"/>
+    <col min="9738" max="9984" width="8.875" style="27"/>
+    <col min="9985" max="9985" width="3.125" style="27" customWidth="1"/>
+    <col min="9986" max="9986" width="9.75" style="27" customWidth="1"/>
+    <col min="9987" max="9987" width="40.125" style="27" customWidth="1"/>
+    <col min="9988" max="9988" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9990" width="21.625" style="27" customWidth="1"/>
+    <col min="9991" max="9991" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="10.125" style="27" customWidth="1"/>
+    <col min="9993" max="9993" width="11.625" style="27" customWidth="1"/>
+    <col min="9994" max="10240" width="8.875" style="27"/>
+    <col min="10241" max="10241" width="3.125" style="27" customWidth="1"/>
+    <col min="10242" max="10242" width="9.75" style="27" customWidth="1"/>
+    <col min="10243" max="10243" width="40.125" style="27" customWidth="1"/>
+    <col min="10244" max="10244" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10246" width="21.625" style="27" customWidth="1"/>
+    <col min="10247" max="10247" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="10.125" style="27" customWidth="1"/>
+    <col min="10249" max="10249" width="11.625" style="27" customWidth="1"/>
+    <col min="10250" max="10496" width="8.875" style="27"/>
+    <col min="10497" max="10497" width="3.125" style="27" customWidth="1"/>
+    <col min="10498" max="10498" width="9.75" style="27" customWidth="1"/>
+    <col min="10499" max="10499" width="40.125" style="27" customWidth="1"/>
+    <col min="10500" max="10500" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10502" width="21.625" style="27" customWidth="1"/>
+    <col min="10503" max="10503" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="10.125" style="27" customWidth="1"/>
+    <col min="10505" max="10505" width="11.625" style="27" customWidth="1"/>
+    <col min="10506" max="10752" width="8.875" style="27"/>
+    <col min="10753" max="10753" width="3.125" style="27" customWidth="1"/>
+    <col min="10754" max="10754" width="9.75" style="27" customWidth="1"/>
+    <col min="10755" max="10755" width="40.125" style="27" customWidth="1"/>
+    <col min="10756" max="10756" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10758" width="21.625" style="27" customWidth="1"/>
+    <col min="10759" max="10759" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="10.125" style="27" customWidth="1"/>
+    <col min="10761" max="10761" width="11.625" style="27" customWidth="1"/>
+    <col min="10762" max="11008" width="8.875" style="27"/>
+    <col min="11009" max="11009" width="3.125" style="27" customWidth="1"/>
+    <col min="11010" max="11010" width="9.75" style="27" customWidth="1"/>
+    <col min="11011" max="11011" width="40.125" style="27" customWidth="1"/>
+    <col min="11012" max="11012" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11014" width="21.625" style="27" customWidth="1"/>
+    <col min="11015" max="11015" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="10.125" style="27" customWidth="1"/>
+    <col min="11017" max="11017" width="11.625" style="27" customWidth="1"/>
+    <col min="11018" max="11264" width="8.875" style="27"/>
+    <col min="11265" max="11265" width="3.125" style="27" customWidth="1"/>
+    <col min="11266" max="11266" width="9.75" style="27" customWidth="1"/>
+    <col min="11267" max="11267" width="40.125" style="27" customWidth="1"/>
+    <col min="11268" max="11268" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11270" width="21.625" style="27" customWidth="1"/>
+    <col min="11271" max="11271" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="10.125" style="27" customWidth="1"/>
+    <col min="11273" max="11273" width="11.625" style="27" customWidth="1"/>
+    <col min="11274" max="11520" width="8.875" style="27"/>
+    <col min="11521" max="11521" width="3.125" style="27" customWidth="1"/>
+    <col min="11522" max="11522" width="9.75" style="27" customWidth="1"/>
+    <col min="11523" max="11523" width="40.125" style="27" customWidth="1"/>
+    <col min="11524" max="11524" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11526" width="21.625" style="27" customWidth="1"/>
+    <col min="11527" max="11527" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="10.125" style="27" customWidth="1"/>
+    <col min="11529" max="11529" width="11.625" style="27" customWidth="1"/>
+    <col min="11530" max="11776" width="8.875" style="27"/>
+    <col min="11777" max="11777" width="3.125" style="27" customWidth="1"/>
+    <col min="11778" max="11778" width="9.75" style="27" customWidth="1"/>
+    <col min="11779" max="11779" width="40.125" style="27" customWidth="1"/>
+    <col min="11780" max="11780" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11782" width="21.625" style="27" customWidth="1"/>
+    <col min="11783" max="11783" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="10.125" style="27" customWidth="1"/>
+    <col min="11785" max="11785" width="11.625" style="27" customWidth="1"/>
+    <col min="11786" max="12032" width="8.875" style="27"/>
+    <col min="12033" max="12033" width="3.125" style="27" customWidth="1"/>
+    <col min="12034" max="12034" width="9.75" style="27" customWidth="1"/>
+    <col min="12035" max="12035" width="40.125" style="27" customWidth="1"/>
+    <col min="12036" max="12036" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12038" width="21.625" style="27" customWidth="1"/>
+    <col min="12039" max="12039" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="10.125" style="27" customWidth="1"/>
+    <col min="12041" max="12041" width="11.625" style="27" customWidth="1"/>
+    <col min="12042" max="12288" width="8.875" style="27"/>
+    <col min="12289" max="12289" width="3.125" style="27" customWidth="1"/>
+    <col min="12290" max="12290" width="9.75" style="27" customWidth="1"/>
+    <col min="12291" max="12291" width="40.125" style="27" customWidth="1"/>
+    <col min="12292" max="12292" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12294" width="21.625" style="27" customWidth="1"/>
+    <col min="12295" max="12295" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="10.125" style="27" customWidth="1"/>
+    <col min="12297" max="12297" width="11.625" style="27" customWidth="1"/>
+    <col min="12298" max="12544" width="8.875" style="27"/>
+    <col min="12545" max="12545" width="3.125" style="27" customWidth="1"/>
+    <col min="12546" max="12546" width="9.75" style="27" customWidth="1"/>
+    <col min="12547" max="12547" width="40.125" style="27" customWidth="1"/>
+    <col min="12548" max="12548" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12550" width="21.625" style="27" customWidth="1"/>
+    <col min="12551" max="12551" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="10.125" style="27" customWidth="1"/>
+    <col min="12553" max="12553" width="11.625" style="27" customWidth="1"/>
+    <col min="12554" max="12800" width="8.875" style="27"/>
+    <col min="12801" max="12801" width="3.125" style="27" customWidth="1"/>
+    <col min="12802" max="12802" width="9.75" style="27" customWidth="1"/>
+    <col min="12803" max="12803" width="40.125" style="27" customWidth="1"/>
+    <col min="12804" max="12804" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12806" width="21.625" style="27" customWidth="1"/>
+    <col min="12807" max="12807" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="10.125" style="27" customWidth="1"/>
+    <col min="12809" max="12809" width="11.625" style="27" customWidth="1"/>
+    <col min="12810" max="13056" width="8.875" style="27"/>
+    <col min="13057" max="13057" width="3.125" style="27" customWidth="1"/>
+    <col min="13058" max="13058" width="9.75" style="27" customWidth="1"/>
+    <col min="13059" max="13059" width="40.125" style="27" customWidth="1"/>
+    <col min="13060" max="13060" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13062" width="21.625" style="27" customWidth="1"/>
+    <col min="13063" max="13063" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="10.125" style="27" customWidth="1"/>
+    <col min="13065" max="13065" width="11.625" style="27" customWidth="1"/>
+    <col min="13066" max="13312" width="8.875" style="27"/>
+    <col min="13313" max="13313" width="3.125" style="27" customWidth="1"/>
+    <col min="13314" max="13314" width="9.75" style="27" customWidth="1"/>
+    <col min="13315" max="13315" width="40.125" style="27" customWidth="1"/>
+    <col min="13316" max="13316" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13318" width="21.625" style="27" customWidth="1"/>
+    <col min="13319" max="13319" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="10.125" style="27" customWidth="1"/>
+    <col min="13321" max="13321" width="11.625" style="27" customWidth="1"/>
+    <col min="13322" max="13568" width="8.875" style="27"/>
+    <col min="13569" max="13569" width="3.125" style="27" customWidth="1"/>
+    <col min="13570" max="13570" width="9.75" style="27" customWidth="1"/>
+    <col min="13571" max="13571" width="40.125" style="27" customWidth="1"/>
+    <col min="13572" max="13572" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13574" width="21.625" style="27" customWidth="1"/>
+    <col min="13575" max="13575" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="10.125" style="27" customWidth="1"/>
+    <col min="13577" max="13577" width="11.625" style="27" customWidth="1"/>
+    <col min="13578" max="13824" width="8.875" style="27"/>
+    <col min="13825" max="13825" width="3.125" style="27" customWidth="1"/>
+    <col min="13826" max="13826" width="9.75" style="27" customWidth="1"/>
+    <col min="13827" max="13827" width="40.125" style="27" customWidth="1"/>
+    <col min="13828" max="13828" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13830" width="21.625" style="27" customWidth="1"/>
+    <col min="13831" max="13831" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="10.125" style="27" customWidth="1"/>
+    <col min="13833" max="13833" width="11.625" style="27" customWidth="1"/>
+    <col min="13834" max="14080" width="8.875" style="27"/>
+    <col min="14081" max="14081" width="3.125" style="27" customWidth="1"/>
+    <col min="14082" max="14082" width="9.75" style="27" customWidth="1"/>
+    <col min="14083" max="14083" width="40.125" style="27" customWidth="1"/>
+    <col min="14084" max="14084" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14086" width="21.625" style="27" customWidth="1"/>
+    <col min="14087" max="14087" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="10.125" style="27" customWidth="1"/>
+    <col min="14089" max="14089" width="11.625" style="27" customWidth="1"/>
+    <col min="14090" max="14336" width="8.875" style="27"/>
+    <col min="14337" max="14337" width="3.125" style="27" customWidth="1"/>
+    <col min="14338" max="14338" width="9.75" style="27" customWidth="1"/>
+    <col min="14339" max="14339" width="40.125" style="27" customWidth="1"/>
+    <col min="14340" max="14340" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14342" width="21.625" style="27" customWidth="1"/>
+    <col min="14343" max="14343" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="10.125" style="27" customWidth="1"/>
+    <col min="14345" max="14345" width="11.625" style="27" customWidth="1"/>
+    <col min="14346" max="14592" width="8.875" style="27"/>
+    <col min="14593" max="14593" width="3.125" style="27" customWidth="1"/>
+    <col min="14594" max="14594" width="9.75" style="27" customWidth="1"/>
+    <col min="14595" max="14595" width="40.125" style="27" customWidth="1"/>
+    <col min="14596" max="14596" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14598" width="21.625" style="27" customWidth="1"/>
+    <col min="14599" max="14599" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="10.125" style="27" customWidth="1"/>
+    <col min="14601" max="14601" width="11.625" style="27" customWidth="1"/>
+    <col min="14602" max="14848" width="8.875" style="27"/>
+    <col min="14849" max="14849" width="3.125" style="27" customWidth="1"/>
+    <col min="14850" max="14850" width="9.75" style="27" customWidth="1"/>
+    <col min="14851" max="14851" width="40.125" style="27" customWidth="1"/>
+    <col min="14852" max="14852" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14854" width="21.625" style="27" customWidth="1"/>
+    <col min="14855" max="14855" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="10.125" style="27" customWidth="1"/>
+    <col min="14857" max="14857" width="11.625" style="27" customWidth="1"/>
+    <col min="14858" max="15104" width="8.875" style="27"/>
+    <col min="15105" max="15105" width="3.125" style="27" customWidth="1"/>
+    <col min="15106" max="15106" width="9.75" style="27" customWidth="1"/>
+    <col min="15107" max="15107" width="40.125" style="27" customWidth="1"/>
+    <col min="15108" max="15108" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15110" width="21.625" style="27" customWidth="1"/>
+    <col min="15111" max="15111" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="10.125" style="27" customWidth="1"/>
+    <col min="15113" max="15113" width="11.625" style="27" customWidth="1"/>
+    <col min="15114" max="15360" width="8.875" style="27"/>
+    <col min="15361" max="15361" width="3.125" style="27" customWidth="1"/>
+    <col min="15362" max="15362" width="9.75" style="27" customWidth="1"/>
+    <col min="15363" max="15363" width="40.125" style="27" customWidth="1"/>
+    <col min="15364" max="15364" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15366" width="21.625" style="27" customWidth="1"/>
+    <col min="15367" max="15367" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="10.125" style="27" customWidth="1"/>
+    <col min="15369" max="15369" width="11.625" style="27" customWidth="1"/>
+    <col min="15370" max="15616" width="8.875" style="27"/>
+    <col min="15617" max="15617" width="3.125" style="27" customWidth="1"/>
+    <col min="15618" max="15618" width="9.75" style="27" customWidth="1"/>
+    <col min="15619" max="15619" width="40.125" style="27" customWidth="1"/>
+    <col min="15620" max="15620" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15622" width="21.625" style="27" customWidth="1"/>
+    <col min="15623" max="15623" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="10.125" style="27" customWidth="1"/>
+    <col min="15625" max="15625" width="11.625" style="27" customWidth="1"/>
+    <col min="15626" max="15872" width="8.875" style="27"/>
+    <col min="15873" max="15873" width="3.125" style="27" customWidth="1"/>
+    <col min="15874" max="15874" width="9.75" style="27" customWidth="1"/>
+    <col min="15875" max="15875" width="40.125" style="27" customWidth="1"/>
+    <col min="15876" max="15876" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15878" width="21.625" style="27" customWidth="1"/>
+    <col min="15879" max="15879" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="10.125" style="27" customWidth="1"/>
+    <col min="15881" max="15881" width="11.625" style="27" customWidth="1"/>
+    <col min="15882" max="16128" width="8.875" style="27"/>
+    <col min="16129" max="16129" width="3.125" style="27" customWidth="1"/>
+    <col min="16130" max="16130" width="9.75" style="27" customWidth="1"/>
+    <col min="16131" max="16131" width="40.125" style="27" customWidth="1"/>
+    <col min="16132" max="16132" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16134" width="21.625" style="27" customWidth="1"/>
+    <col min="16135" max="16135" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="10.125" style="27" customWidth="1"/>
+    <col min="16137" max="16137" width="11.625" style="27" customWidth="1"/>
+    <col min="16138" max="16384" width="8.875" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="6" customHeight="1">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25">
+      <c r="A2" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" s="33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="25"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="37" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+      <c r="B9" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+      <c r="B10" s="104" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="105" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="105" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="105" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="106" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="52.5">
+      <c r="A11" s="38"/>
+      <c r="B11" s="64" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="124" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="I11" s="77">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="42">
+      <c r="A12" s="38"/>
+      <c r="B12" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="H12" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="I12" s="75">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.25" thickBot="1">
+      <c r="B13" s="71"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="123"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+    </row>
+    <row r="16" spans="1:9" ht="6" customHeight="1">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.25">
+      <c r="A17" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="B19" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G13">
+      <formula1>"OK,NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H25"/>
   <sheetViews>
@@ -9158,38 +11525,38 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="B5" s="126" t="s">
+      <c r="B5" s="129" t="s">
         <v>65</v>
       </c>
       <c r="C5" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="128" t="s">
+      <c r="D5" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="130" t="s">
+      <c r="E5" s="133" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="128" t="s">
+      <c r="F5" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="130" t="s">
+      <c r="G5" s="133" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="124" t="s">
+      <c r="H5" s="127" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" thickBot="1">
-      <c r="B6" s="127"/>
+      <c r="B6" s="130"/>
       <c r="C6" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="129"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="125"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="128"/>
     </row>
     <row r="7" spans="1:8" ht="21">
       <c r="B7" s="66" t="s">
@@ -9415,614 +11782,4 @@
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:G18"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="25.125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="27" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="27" customWidth="1"/>
-    <col min="6" max="7" width="11.125" style="27" customWidth="1"/>
-    <col min="8" max="256" width="9" style="27"/>
-    <col min="257" max="257" width="1.625" style="27" customWidth="1"/>
-    <col min="258" max="258" width="6.625" style="27" customWidth="1"/>
-    <col min="259" max="259" width="25.125" style="27" customWidth="1"/>
-    <col min="260" max="260" width="24.625" style="27" customWidth="1"/>
-    <col min="261" max="261" width="8.625" style="27" customWidth="1"/>
-    <col min="262" max="263" width="11.125" style="27" customWidth="1"/>
-    <col min="264" max="512" width="9" style="27"/>
-    <col min="513" max="513" width="1.625" style="27" customWidth="1"/>
-    <col min="514" max="514" width="6.625" style="27" customWidth="1"/>
-    <col min="515" max="515" width="25.125" style="27" customWidth="1"/>
-    <col min="516" max="516" width="24.625" style="27" customWidth="1"/>
-    <col min="517" max="517" width="8.625" style="27" customWidth="1"/>
-    <col min="518" max="519" width="11.125" style="27" customWidth="1"/>
-    <col min="520" max="768" width="9" style="27"/>
-    <col min="769" max="769" width="1.625" style="27" customWidth="1"/>
-    <col min="770" max="770" width="6.625" style="27" customWidth="1"/>
-    <col min="771" max="771" width="25.125" style="27" customWidth="1"/>
-    <col min="772" max="772" width="24.625" style="27" customWidth="1"/>
-    <col min="773" max="773" width="8.625" style="27" customWidth="1"/>
-    <col min="774" max="775" width="11.125" style="27" customWidth="1"/>
-    <col min="776" max="1024" width="9" style="27"/>
-    <col min="1025" max="1025" width="1.625" style="27" customWidth="1"/>
-    <col min="1026" max="1026" width="6.625" style="27" customWidth="1"/>
-    <col min="1027" max="1027" width="25.125" style="27" customWidth="1"/>
-    <col min="1028" max="1028" width="24.625" style="27" customWidth="1"/>
-    <col min="1029" max="1029" width="8.625" style="27" customWidth="1"/>
-    <col min="1030" max="1031" width="11.125" style="27" customWidth="1"/>
-    <col min="1032" max="1280" width="9" style="27"/>
-    <col min="1281" max="1281" width="1.625" style="27" customWidth="1"/>
-    <col min="1282" max="1282" width="6.625" style="27" customWidth="1"/>
-    <col min="1283" max="1283" width="25.125" style="27" customWidth="1"/>
-    <col min="1284" max="1284" width="24.625" style="27" customWidth="1"/>
-    <col min="1285" max="1285" width="8.625" style="27" customWidth="1"/>
-    <col min="1286" max="1287" width="11.125" style="27" customWidth="1"/>
-    <col min="1288" max="1536" width="9" style="27"/>
-    <col min="1537" max="1537" width="1.625" style="27" customWidth="1"/>
-    <col min="1538" max="1538" width="6.625" style="27" customWidth="1"/>
-    <col min="1539" max="1539" width="25.125" style="27" customWidth="1"/>
-    <col min="1540" max="1540" width="24.625" style="27" customWidth="1"/>
-    <col min="1541" max="1541" width="8.625" style="27" customWidth="1"/>
-    <col min="1542" max="1543" width="11.125" style="27" customWidth="1"/>
-    <col min="1544" max="1792" width="9" style="27"/>
-    <col min="1793" max="1793" width="1.625" style="27" customWidth="1"/>
-    <col min="1794" max="1794" width="6.625" style="27" customWidth="1"/>
-    <col min="1795" max="1795" width="25.125" style="27" customWidth="1"/>
-    <col min="1796" max="1796" width="24.625" style="27" customWidth="1"/>
-    <col min="1797" max="1797" width="8.625" style="27" customWidth="1"/>
-    <col min="1798" max="1799" width="11.125" style="27" customWidth="1"/>
-    <col min="1800" max="2048" width="9" style="27"/>
-    <col min="2049" max="2049" width="1.625" style="27" customWidth="1"/>
-    <col min="2050" max="2050" width="6.625" style="27" customWidth="1"/>
-    <col min="2051" max="2051" width="25.125" style="27" customWidth="1"/>
-    <col min="2052" max="2052" width="24.625" style="27" customWidth="1"/>
-    <col min="2053" max="2053" width="8.625" style="27" customWidth="1"/>
-    <col min="2054" max="2055" width="11.125" style="27" customWidth="1"/>
-    <col min="2056" max="2304" width="9" style="27"/>
-    <col min="2305" max="2305" width="1.625" style="27" customWidth="1"/>
-    <col min="2306" max="2306" width="6.625" style="27" customWidth="1"/>
-    <col min="2307" max="2307" width="25.125" style="27" customWidth="1"/>
-    <col min="2308" max="2308" width="24.625" style="27" customWidth="1"/>
-    <col min="2309" max="2309" width="8.625" style="27" customWidth="1"/>
-    <col min="2310" max="2311" width="11.125" style="27" customWidth="1"/>
-    <col min="2312" max="2560" width="9" style="27"/>
-    <col min="2561" max="2561" width="1.625" style="27" customWidth="1"/>
-    <col min="2562" max="2562" width="6.625" style="27" customWidth="1"/>
-    <col min="2563" max="2563" width="25.125" style="27" customWidth="1"/>
-    <col min="2564" max="2564" width="24.625" style="27" customWidth="1"/>
-    <col min="2565" max="2565" width="8.625" style="27" customWidth="1"/>
-    <col min="2566" max="2567" width="11.125" style="27" customWidth="1"/>
-    <col min="2568" max="2816" width="9" style="27"/>
-    <col min="2817" max="2817" width="1.625" style="27" customWidth="1"/>
-    <col min="2818" max="2818" width="6.625" style="27" customWidth="1"/>
-    <col min="2819" max="2819" width="25.125" style="27" customWidth="1"/>
-    <col min="2820" max="2820" width="24.625" style="27" customWidth="1"/>
-    <col min="2821" max="2821" width="8.625" style="27" customWidth="1"/>
-    <col min="2822" max="2823" width="11.125" style="27" customWidth="1"/>
-    <col min="2824" max="3072" width="9" style="27"/>
-    <col min="3073" max="3073" width="1.625" style="27" customWidth="1"/>
-    <col min="3074" max="3074" width="6.625" style="27" customWidth="1"/>
-    <col min="3075" max="3075" width="25.125" style="27" customWidth="1"/>
-    <col min="3076" max="3076" width="24.625" style="27" customWidth="1"/>
-    <col min="3077" max="3077" width="8.625" style="27" customWidth="1"/>
-    <col min="3078" max="3079" width="11.125" style="27" customWidth="1"/>
-    <col min="3080" max="3328" width="9" style="27"/>
-    <col min="3329" max="3329" width="1.625" style="27" customWidth="1"/>
-    <col min="3330" max="3330" width="6.625" style="27" customWidth="1"/>
-    <col min="3331" max="3331" width="25.125" style="27" customWidth="1"/>
-    <col min="3332" max="3332" width="24.625" style="27" customWidth="1"/>
-    <col min="3333" max="3333" width="8.625" style="27" customWidth="1"/>
-    <col min="3334" max="3335" width="11.125" style="27" customWidth="1"/>
-    <col min="3336" max="3584" width="9" style="27"/>
-    <col min="3585" max="3585" width="1.625" style="27" customWidth="1"/>
-    <col min="3586" max="3586" width="6.625" style="27" customWidth="1"/>
-    <col min="3587" max="3587" width="25.125" style="27" customWidth="1"/>
-    <col min="3588" max="3588" width="24.625" style="27" customWidth="1"/>
-    <col min="3589" max="3589" width="8.625" style="27" customWidth="1"/>
-    <col min="3590" max="3591" width="11.125" style="27" customWidth="1"/>
-    <col min="3592" max="3840" width="9" style="27"/>
-    <col min="3841" max="3841" width="1.625" style="27" customWidth="1"/>
-    <col min="3842" max="3842" width="6.625" style="27" customWidth="1"/>
-    <col min="3843" max="3843" width="25.125" style="27" customWidth="1"/>
-    <col min="3844" max="3844" width="24.625" style="27" customWidth="1"/>
-    <col min="3845" max="3845" width="8.625" style="27" customWidth="1"/>
-    <col min="3846" max="3847" width="11.125" style="27" customWidth="1"/>
-    <col min="3848" max="4096" width="9" style="27"/>
-    <col min="4097" max="4097" width="1.625" style="27" customWidth="1"/>
-    <col min="4098" max="4098" width="6.625" style="27" customWidth="1"/>
-    <col min="4099" max="4099" width="25.125" style="27" customWidth="1"/>
-    <col min="4100" max="4100" width="24.625" style="27" customWidth="1"/>
-    <col min="4101" max="4101" width="8.625" style="27" customWidth="1"/>
-    <col min="4102" max="4103" width="11.125" style="27" customWidth="1"/>
-    <col min="4104" max="4352" width="9" style="27"/>
-    <col min="4353" max="4353" width="1.625" style="27" customWidth="1"/>
-    <col min="4354" max="4354" width="6.625" style="27" customWidth="1"/>
-    <col min="4355" max="4355" width="25.125" style="27" customWidth="1"/>
-    <col min="4356" max="4356" width="24.625" style="27" customWidth="1"/>
-    <col min="4357" max="4357" width="8.625" style="27" customWidth="1"/>
-    <col min="4358" max="4359" width="11.125" style="27" customWidth="1"/>
-    <col min="4360" max="4608" width="9" style="27"/>
-    <col min="4609" max="4609" width="1.625" style="27" customWidth="1"/>
-    <col min="4610" max="4610" width="6.625" style="27" customWidth="1"/>
-    <col min="4611" max="4611" width="25.125" style="27" customWidth="1"/>
-    <col min="4612" max="4612" width="24.625" style="27" customWidth="1"/>
-    <col min="4613" max="4613" width="8.625" style="27" customWidth="1"/>
-    <col min="4614" max="4615" width="11.125" style="27" customWidth="1"/>
-    <col min="4616" max="4864" width="9" style="27"/>
-    <col min="4865" max="4865" width="1.625" style="27" customWidth="1"/>
-    <col min="4866" max="4866" width="6.625" style="27" customWidth="1"/>
-    <col min="4867" max="4867" width="25.125" style="27" customWidth="1"/>
-    <col min="4868" max="4868" width="24.625" style="27" customWidth="1"/>
-    <col min="4869" max="4869" width="8.625" style="27" customWidth="1"/>
-    <col min="4870" max="4871" width="11.125" style="27" customWidth="1"/>
-    <col min="4872" max="5120" width="9" style="27"/>
-    <col min="5121" max="5121" width="1.625" style="27" customWidth="1"/>
-    <col min="5122" max="5122" width="6.625" style="27" customWidth="1"/>
-    <col min="5123" max="5123" width="25.125" style="27" customWidth="1"/>
-    <col min="5124" max="5124" width="24.625" style="27" customWidth="1"/>
-    <col min="5125" max="5125" width="8.625" style="27" customWidth="1"/>
-    <col min="5126" max="5127" width="11.125" style="27" customWidth="1"/>
-    <col min="5128" max="5376" width="9" style="27"/>
-    <col min="5377" max="5377" width="1.625" style="27" customWidth="1"/>
-    <col min="5378" max="5378" width="6.625" style="27" customWidth="1"/>
-    <col min="5379" max="5379" width="25.125" style="27" customWidth="1"/>
-    <col min="5380" max="5380" width="24.625" style="27" customWidth="1"/>
-    <col min="5381" max="5381" width="8.625" style="27" customWidth="1"/>
-    <col min="5382" max="5383" width="11.125" style="27" customWidth="1"/>
-    <col min="5384" max="5632" width="9" style="27"/>
-    <col min="5633" max="5633" width="1.625" style="27" customWidth="1"/>
-    <col min="5634" max="5634" width="6.625" style="27" customWidth="1"/>
-    <col min="5635" max="5635" width="25.125" style="27" customWidth="1"/>
-    <col min="5636" max="5636" width="24.625" style="27" customWidth="1"/>
-    <col min="5637" max="5637" width="8.625" style="27" customWidth="1"/>
-    <col min="5638" max="5639" width="11.125" style="27" customWidth="1"/>
-    <col min="5640" max="5888" width="9" style="27"/>
-    <col min="5889" max="5889" width="1.625" style="27" customWidth="1"/>
-    <col min="5890" max="5890" width="6.625" style="27" customWidth="1"/>
-    <col min="5891" max="5891" width="25.125" style="27" customWidth="1"/>
-    <col min="5892" max="5892" width="24.625" style="27" customWidth="1"/>
-    <col min="5893" max="5893" width="8.625" style="27" customWidth="1"/>
-    <col min="5894" max="5895" width="11.125" style="27" customWidth="1"/>
-    <col min="5896" max="6144" width="9" style="27"/>
-    <col min="6145" max="6145" width="1.625" style="27" customWidth="1"/>
-    <col min="6146" max="6146" width="6.625" style="27" customWidth="1"/>
-    <col min="6147" max="6147" width="25.125" style="27" customWidth="1"/>
-    <col min="6148" max="6148" width="24.625" style="27" customWidth="1"/>
-    <col min="6149" max="6149" width="8.625" style="27" customWidth="1"/>
-    <col min="6150" max="6151" width="11.125" style="27" customWidth="1"/>
-    <col min="6152" max="6400" width="9" style="27"/>
-    <col min="6401" max="6401" width="1.625" style="27" customWidth="1"/>
-    <col min="6402" max="6402" width="6.625" style="27" customWidth="1"/>
-    <col min="6403" max="6403" width="25.125" style="27" customWidth="1"/>
-    <col min="6404" max="6404" width="24.625" style="27" customWidth="1"/>
-    <col min="6405" max="6405" width="8.625" style="27" customWidth="1"/>
-    <col min="6406" max="6407" width="11.125" style="27" customWidth="1"/>
-    <col min="6408" max="6656" width="9" style="27"/>
-    <col min="6657" max="6657" width="1.625" style="27" customWidth="1"/>
-    <col min="6658" max="6658" width="6.625" style="27" customWidth="1"/>
-    <col min="6659" max="6659" width="25.125" style="27" customWidth="1"/>
-    <col min="6660" max="6660" width="24.625" style="27" customWidth="1"/>
-    <col min="6661" max="6661" width="8.625" style="27" customWidth="1"/>
-    <col min="6662" max="6663" width="11.125" style="27" customWidth="1"/>
-    <col min="6664" max="6912" width="9" style="27"/>
-    <col min="6913" max="6913" width="1.625" style="27" customWidth="1"/>
-    <col min="6914" max="6914" width="6.625" style="27" customWidth="1"/>
-    <col min="6915" max="6915" width="25.125" style="27" customWidth="1"/>
-    <col min="6916" max="6916" width="24.625" style="27" customWidth="1"/>
-    <col min="6917" max="6917" width="8.625" style="27" customWidth="1"/>
-    <col min="6918" max="6919" width="11.125" style="27" customWidth="1"/>
-    <col min="6920" max="7168" width="9" style="27"/>
-    <col min="7169" max="7169" width="1.625" style="27" customWidth="1"/>
-    <col min="7170" max="7170" width="6.625" style="27" customWidth="1"/>
-    <col min="7171" max="7171" width="25.125" style="27" customWidth="1"/>
-    <col min="7172" max="7172" width="24.625" style="27" customWidth="1"/>
-    <col min="7173" max="7173" width="8.625" style="27" customWidth="1"/>
-    <col min="7174" max="7175" width="11.125" style="27" customWidth="1"/>
-    <col min="7176" max="7424" width="9" style="27"/>
-    <col min="7425" max="7425" width="1.625" style="27" customWidth="1"/>
-    <col min="7426" max="7426" width="6.625" style="27" customWidth="1"/>
-    <col min="7427" max="7427" width="25.125" style="27" customWidth="1"/>
-    <col min="7428" max="7428" width="24.625" style="27" customWidth="1"/>
-    <col min="7429" max="7429" width="8.625" style="27" customWidth="1"/>
-    <col min="7430" max="7431" width="11.125" style="27" customWidth="1"/>
-    <col min="7432" max="7680" width="9" style="27"/>
-    <col min="7681" max="7681" width="1.625" style="27" customWidth="1"/>
-    <col min="7682" max="7682" width="6.625" style="27" customWidth="1"/>
-    <col min="7683" max="7683" width="25.125" style="27" customWidth="1"/>
-    <col min="7684" max="7684" width="24.625" style="27" customWidth="1"/>
-    <col min="7685" max="7685" width="8.625" style="27" customWidth="1"/>
-    <col min="7686" max="7687" width="11.125" style="27" customWidth="1"/>
-    <col min="7688" max="7936" width="9" style="27"/>
-    <col min="7937" max="7937" width="1.625" style="27" customWidth="1"/>
-    <col min="7938" max="7938" width="6.625" style="27" customWidth="1"/>
-    <col min="7939" max="7939" width="25.125" style="27" customWidth="1"/>
-    <col min="7940" max="7940" width="24.625" style="27" customWidth="1"/>
-    <col min="7941" max="7941" width="8.625" style="27" customWidth="1"/>
-    <col min="7942" max="7943" width="11.125" style="27" customWidth="1"/>
-    <col min="7944" max="8192" width="9" style="27"/>
-    <col min="8193" max="8193" width="1.625" style="27" customWidth="1"/>
-    <col min="8194" max="8194" width="6.625" style="27" customWidth="1"/>
-    <col min="8195" max="8195" width="25.125" style="27" customWidth="1"/>
-    <col min="8196" max="8196" width="24.625" style="27" customWidth="1"/>
-    <col min="8197" max="8197" width="8.625" style="27" customWidth="1"/>
-    <col min="8198" max="8199" width="11.125" style="27" customWidth="1"/>
-    <col min="8200" max="8448" width="9" style="27"/>
-    <col min="8449" max="8449" width="1.625" style="27" customWidth="1"/>
-    <col min="8450" max="8450" width="6.625" style="27" customWidth="1"/>
-    <col min="8451" max="8451" width="25.125" style="27" customWidth="1"/>
-    <col min="8452" max="8452" width="24.625" style="27" customWidth="1"/>
-    <col min="8453" max="8453" width="8.625" style="27" customWidth="1"/>
-    <col min="8454" max="8455" width="11.125" style="27" customWidth="1"/>
-    <col min="8456" max="8704" width="9" style="27"/>
-    <col min="8705" max="8705" width="1.625" style="27" customWidth="1"/>
-    <col min="8706" max="8706" width="6.625" style="27" customWidth="1"/>
-    <col min="8707" max="8707" width="25.125" style="27" customWidth="1"/>
-    <col min="8708" max="8708" width="24.625" style="27" customWidth="1"/>
-    <col min="8709" max="8709" width="8.625" style="27" customWidth="1"/>
-    <col min="8710" max="8711" width="11.125" style="27" customWidth="1"/>
-    <col min="8712" max="8960" width="9" style="27"/>
-    <col min="8961" max="8961" width="1.625" style="27" customWidth="1"/>
-    <col min="8962" max="8962" width="6.625" style="27" customWidth="1"/>
-    <col min="8963" max="8963" width="25.125" style="27" customWidth="1"/>
-    <col min="8964" max="8964" width="24.625" style="27" customWidth="1"/>
-    <col min="8965" max="8965" width="8.625" style="27" customWidth="1"/>
-    <col min="8966" max="8967" width="11.125" style="27" customWidth="1"/>
-    <col min="8968" max="9216" width="9" style="27"/>
-    <col min="9217" max="9217" width="1.625" style="27" customWidth="1"/>
-    <col min="9218" max="9218" width="6.625" style="27" customWidth="1"/>
-    <col min="9219" max="9219" width="25.125" style="27" customWidth="1"/>
-    <col min="9220" max="9220" width="24.625" style="27" customWidth="1"/>
-    <col min="9221" max="9221" width="8.625" style="27" customWidth="1"/>
-    <col min="9222" max="9223" width="11.125" style="27" customWidth="1"/>
-    <col min="9224" max="9472" width="9" style="27"/>
-    <col min="9473" max="9473" width="1.625" style="27" customWidth="1"/>
-    <col min="9474" max="9474" width="6.625" style="27" customWidth="1"/>
-    <col min="9475" max="9475" width="25.125" style="27" customWidth="1"/>
-    <col min="9476" max="9476" width="24.625" style="27" customWidth="1"/>
-    <col min="9477" max="9477" width="8.625" style="27" customWidth="1"/>
-    <col min="9478" max="9479" width="11.125" style="27" customWidth="1"/>
-    <col min="9480" max="9728" width="9" style="27"/>
-    <col min="9729" max="9729" width="1.625" style="27" customWidth="1"/>
-    <col min="9730" max="9730" width="6.625" style="27" customWidth="1"/>
-    <col min="9731" max="9731" width="25.125" style="27" customWidth="1"/>
-    <col min="9732" max="9732" width="24.625" style="27" customWidth="1"/>
-    <col min="9733" max="9733" width="8.625" style="27" customWidth="1"/>
-    <col min="9734" max="9735" width="11.125" style="27" customWidth="1"/>
-    <col min="9736" max="9984" width="9" style="27"/>
-    <col min="9985" max="9985" width="1.625" style="27" customWidth="1"/>
-    <col min="9986" max="9986" width="6.625" style="27" customWidth="1"/>
-    <col min="9987" max="9987" width="25.125" style="27" customWidth="1"/>
-    <col min="9988" max="9988" width="24.625" style="27" customWidth="1"/>
-    <col min="9989" max="9989" width="8.625" style="27" customWidth="1"/>
-    <col min="9990" max="9991" width="11.125" style="27" customWidth="1"/>
-    <col min="9992" max="10240" width="9" style="27"/>
-    <col min="10241" max="10241" width="1.625" style="27" customWidth="1"/>
-    <col min="10242" max="10242" width="6.625" style="27" customWidth="1"/>
-    <col min="10243" max="10243" width="25.125" style="27" customWidth="1"/>
-    <col min="10244" max="10244" width="24.625" style="27" customWidth="1"/>
-    <col min="10245" max="10245" width="8.625" style="27" customWidth="1"/>
-    <col min="10246" max="10247" width="11.125" style="27" customWidth="1"/>
-    <col min="10248" max="10496" width="9" style="27"/>
-    <col min="10497" max="10497" width="1.625" style="27" customWidth="1"/>
-    <col min="10498" max="10498" width="6.625" style="27" customWidth="1"/>
-    <col min="10499" max="10499" width="25.125" style="27" customWidth="1"/>
-    <col min="10500" max="10500" width="24.625" style="27" customWidth="1"/>
-    <col min="10501" max="10501" width="8.625" style="27" customWidth="1"/>
-    <col min="10502" max="10503" width="11.125" style="27" customWidth="1"/>
-    <col min="10504" max="10752" width="9" style="27"/>
-    <col min="10753" max="10753" width="1.625" style="27" customWidth="1"/>
-    <col min="10754" max="10754" width="6.625" style="27" customWidth="1"/>
-    <col min="10755" max="10755" width="25.125" style="27" customWidth="1"/>
-    <col min="10756" max="10756" width="24.625" style="27" customWidth="1"/>
-    <col min="10757" max="10757" width="8.625" style="27" customWidth="1"/>
-    <col min="10758" max="10759" width="11.125" style="27" customWidth="1"/>
-    <col min="10760" max="11008" width="9" style="27"/>
-    <col min="11009" max="11009" width="1.625" style="27" customWidth="1"/>
-    <col min="11010" max="11010" width="6.625" style="27" customWidth="1"/>
-    <col min="11011" max="11011" width="25.125" style="27" customWidth="1"/>
-    <col min="11012" max="11012" width="24.625" style="27" customWidth="1"/>
-    <col min="11013" max="11013" width="8.625" style="27" customWidth="1"/>
-    <col min="11014" max="11015" width="11.125" style="27" customWidth="1"/>
-    <col min="11016" max="11264" width="9" style="27"/>
-    <col min="11265" max="11265" width="1.625" style="27" customWidth="1"/>
-    <col min="11266" max="11266" width="6.625" style="27" customWidth="1"/>
-    <col min="11267" max="11267" width="25.125" style="27" customWidth="1"/>
-    <col min="11268" max="11268" width="24.625" style="27" customWidth="1"/>
-    <col min="11269" max="11269" width="8.625" style="27" customWidth="1"/>
-    <col min="11270" max="11271" width="11.125" style="27" customWidth="1"/>
-    <col min="11272" max="11520" width="9" style="27"/>
-    <col min="11521" max="11521" width="1.625" style="27" customWidth="1"/>
-    <col min="11522" max="11522" width="6.625" style="27" customWidth="1"/>
-    <col min="11523" max="11523" width="25.125" style="27" customWidth="1"/>
-    <col min="11524" max="11524" width="24.625" style="27" customWidth="1"/>
-    <col min="11525" max="11525" width="8.625" style="27" customWidth="1"/>
-    <col min="11526" max="11527" width="11.125" style="27" customWidth="1"/>
-    <col min="11528" max="11776" width="9" style="27"/>
-    <col min="11777" max="11777" width="1.625" style="27" customWidth="1"/>
-    <col min="11778" max="11778" width="6.625" style="27" customWidth="1"/>
-    <col min="11779" max="11779" width="25.125" style="27" customWidth="1"/>
-    <col min="11780" max="11780" width="24.625" style="27" customWidth="1"/>
-    <col min="11781" max="11781" width="8.625" style="27" customWidth="1"/>
-    <col min="11782" max="11783" width="11.125" style="27" customWidth="1"/>
-    <col min="11784" max="12032" width="9" style="27"/>
-    <col min="12033" max="12033" width="1.625" style="27" customWidth="1"/>
-    <col min="12034" max="12034" width="6.625" style="27" customWidth="1"/>
-    <col min="12035" max="12035" width="25.125" style="27" customWidth="1"/>
-    <col min="12036" max="12036" width="24.625" style="27" customWidth="1"/>
-    <col min="12037" max="12037" width="8.625" style="27" customWidth="1"/>
-    <col min="12038" max="12039" width="11.125" style="27" customWidth="1"/>
-    <col min="12040" max="12288" width="9" style="27"/>
-    <col min="12289" max="12289" width="1.625" style="27" customWidth="1"/>
-    <col min="12290" max="12290" width="6.625" style="27" customWidth="1"/>
-    <col min="12291" max="12291" width="25.125" style="27" customWidth="1"/>
-    <col min="12292" max="12292" width="24.625" style="27" customWidth="1"/>
-    <col min="12293" max="12293" width="8.625" style="27" customWidth="1"/>
-    <col min="12294" max="12295" width="11.125" style="27" customWidth="1"/>
-    <col min="12296" max="12544" width="9" style="27"/>
-    <col min="12545" max="12545" width="1.625" style="27" customWidth="1"/>
-    <col min="12546" max="12546" width="6.625" style="27" customWidth="1"/>
-    <col min="12547" max="12547" width="25.125" style="27" customWidth="1"/>
-    <col min="12548" max="12548" width="24.625" style="27" customWidth="1"/>
-    <col min="12549" max="12549" width="8.625" style="27" customWidth="1"/>
-    <col min="12550" max="12551" width="11.125" style="27" customWidth="1"/>
-    <col min="12552" max="12800" width="9" style="27"/>
-    <col min="12801" max="12801" width="1.625" style="27" customWidth="1"/>
-    <col min="12802" max="12802" width="6.625" style="27" customWidth="1"/>
-    <col min="12803" max="12803" width="25.125" style="27" customWidth="1"/>
-    <col min="12804" max="12804" width="24.625" style="27" customWidth="1"/>
-    <col min="12805" max="12805" width="8.625" style="27" customWidth="1"/>
-    <col min="12806" max="12807" width="11.125" style="27" customWidth="1"/>
-    <col min="12808" max="13056" width="9" style="27"/>
-    <col min="13057" max="13057" width="1.625" style="27" customWidth="1"/>
-    <col min="13058" max="13058" width="6.625" style="27" customWidth="1"/>
-    <col min="13059" max="13059" width="25.125" style="27" customWidth="1"/>
-    <col min="13060" max="13060" width="24.625" style="27" customWidth="1"/>
-    <col min="13061" max="13061" width="8.625" style="27" customWidth="1"/>
-    <col min="13062" max="13063" width="11.125" style="27" customWidth="1"/>
-    <col min="13064" max="13312" width="9" style="27"/>
-    <col min="13313" max="13313" width="1.625" style="27" customWidth="1"/>
-    <col min="13314" max="13314" width="6.625" style="27" customWidth="1"/>
-    <col min="13315" max="13315" width="25.125" style="27" customWidth="1"/>
-    <col min="13316" max="13316" width="24.625" style="27" customWidth="1"/>
-    <col min="13317" max="13317" width="8.625" style="27" customWidth="1"/>
-    <col min="13318" max="13319" width="11.125" style="27" customWidth="1"/>
-    <col min="13320" max="13568" width="9" style="27"/>
-    <col min="13569" max="13569" width="1.625" style="27" customWidth="1"/>
-    <col min="13570" max="13570" width="6.625" style="27" customWidth="1"/>
-    <col min="13571" max="13571" width="25.125" style="27" customWidth="1"/>
-    <col min="13572" max="13572" width="24.625" style="27" customWidth="1"/>
-    <col min="13573" max="13573" width="8.625" style="27" customWidth="1"/>
-    <col min="13574" max="13575" width="11.125" style="27" customWidth="1"/>
-    <col min="13576" max="13824" width="9" style="27"/>
-    <col min="13825" max="13825" width="1.625" style="27" customWidth="1"/>
-    <col min="13826" max="13826" width="6.625" style="27" customWidth="1"/>
-    <col min="13827" max="13827" width="25.125" style="27" customWidth="1"/>
-    <col min="13828" max="13828" width="24.625" style="27" customWidth="1"/>
-    <col min="13829" max="13829" width="8.625" style="27" customWidth="1"/>
-    <col min="13830" max="13831" width="11.125" style="27" customWidth="1"/>
-    <col min="13832" max="14080" width="9" style="27"/>
-    <col min="14081" max="14081" width="1.625" style="27" customWidth="1"/>
-    <col min="14082" max="14082" width="6.625" style="27" customWidth="1"/>
-    <col min="14083" max="14083" width="25.125" style="27" customWidth="1"/>
-    <col min="14084" max="14084" width="24.625" style="27" customWidth="1"/>
-    <col min="14085" max="14085" width="8.625" style="27" customWidth="1"/>
-    <col min="14086" max="14087" width="11.125" style="27" customWidth="1"/>
-    <col min="14088" max="14336" width="9" style="27"/>
-    <col min="14337" max="14337" width="1.625" style="27" customWidth="1"/>
-    <col min="14338" max="14338" width="6.625" style="27" customWidth="1"/>
-    <col min="14339" max="14339" width="25.125" style="27" customWidth="1"/>
-    <col min="14340" max="14340" width="24.625" style="27" customWidth="1"/>
-    <col min="14341" max="14341" width="8.625" style="27" customWidth="1"/>
-    <col min="14342" max="14343" width="11.125" style="27" customWidth="1"/>
-    <col min="14344" max="14592" width="9" style="27"/>
-    <col min="14593" max="14593" width="1.625" style="27" customWidth="1"/>
-    <col min="14594" max="14594" width="6.625" style="27" customWidth="1"/>
-    <col min="14595" max="14595" width="25.125" style="27" customWidth="1"/>
-    <col min="14596" max="14596" width="24.625" style="27" customWidth="1"/>
-    <col min="14597" max="14597" width="8.625" style="27" customWidth="1"/>
-    <col min="14598" max="14599" width="11.125" style="27" customWidth="1"/>
-    <col min="14600" max="14848" width="9" style="27"/>
-    <col min="14849" max="14849" width="1.625" style="27" customWidth="1"/>
-    <col min="14850" max="14850" width="6.625" style="27" customWidth="1"/>
-    <col min="14851" max="14851" width="25.125" style="27" customWidth="1"/>
-    <col min="14852" max="14852" width="24.625" style="27" customWidth="1"/>
-    <col min="14853" max="14853" width="8.625" style="27" customWidth="1"/>
-    <col min="14854" max="14855" width="11.125" style="27" customWidth="1"/>
-    <col min="14856" max="15104" width="9" style="27"/>
-    <col min="15105" max="15105" width="1.625" style="27" customWidth="1"/>
-    <col min="15106" max="15106" width="6.625" style="27" customWidth="1"/>
-    <col min="15107" max="15107" width="25.125" style="27" customWidth="1"/>
-    <col min="15108" max="15108" width="24.625" style="27" customWidth="1"/>
-    <col min="15109" max="15109" width="8.625" style="27" customWidth="1"/>
-    <col min="15110" max="15111" width="11.125" style="27" customWidth="1"/>
-    <col min="15112" max="15360" width="9" style="27"/>
-    <col min="15361" max="15361" width="1.625" style="27" customWidth="1"/>
-    <col min="15362" max="15362" width="6.625" style="27" customWidth="1"/>
-    <col min="15363" max="15363" width="25.125" style="27" customWidth="1"/>
-    <col min="15364" max="15364" width="24.625" style="27" customWidth="1"/>
-    <col min="15365" max="15365" width="8.625" style="27" customWidth="1"/>
-    <col min="15366" max="15367" width="11.125" style="27" customWidth="1"/>
-    <col min="15368" max="15616" width="9" style="27"/>
-    <col min="15617" max="15617" width="1.625" style="27" customWidth="1"/>
-    <col min="15618" max="15618" width="6.625" style="27" customWidth="1"/>
-    <col min="15619" max="15619" width="25.125" style="27" customWidth="1"/>
-    <col min="15620" max="15620" width="24.625" style="27" customWidth="1"/>
-    <col min="15621" max="15621" width="8.625" style="27" customWidth="1"/>
-    <col min="15622" max="15623" width="11.125" style="27" customWidth="1"/>
-    <col min="15624" max="15872" width="9" style="27"/>
-    <col min="15873" max="15873" width="1.625" style="27" customWidth="1"/>
-    <col min="15874" max="15874" width="6.625" style="27" customWidth="1"/>
-    <col min="15875" max="15875" width="25.125" style="27" customWidth="1"/>
-    <col min="15876" max="15876" width="24.625" style="27" customWidth="1"/>
-    <col min="15877" max="15877" width="8.625" style="27" customWidth="1"/>
-    <col min="15878" max="15879" width="11.125" style="27" customWidth="1"/>
-    <col min="15880" max="16128" width="9" style="27"/>
-    <col min="16129" max="16129" width="1.625" style="27" customWidth="1"/>
-    <col min="16130" max="16130" width="6.625" style="27" customWidth="1"/>
-    <col min="16131" max="16131" width="25.125" style="27" customWidth="1"/>
-    <col min="16132" max="16132" width="24.625" style="27" customWidth="1"/>
-    <col min="16133" max="16133" width="8.625" style="27" customWidth="1"/>
-    <col min="16134" max="16135" width="11.125" style="27" customWidth="1"/>
-    <col min="16136" max="16384" width="9" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="6" customHeight="1">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-    </row>
-    <row r="2" spans="1:7" ht="17.25">
-      <c r="A2" s="26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="6" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.25">
-      <c r="A5" s="32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.25" thickBot="1">
-      <c r="A6" s="17"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.25" thickBot="1">
-      <c r="A7" s="59"/>
-      <c r="B7" s="109" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="110" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="110" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="110" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="111" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="63"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.1" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="17"/>
-    </row>
-    <row r="11" spans="1:7" ht="6" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.25">
-      <c r="A12" s="32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="14.25" thickBot="1">
-      <c r="A13" s="17"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.25" thickBot="1">
-      <c r="A14" s="59"/>
-      <c r="B14" s="109" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="112" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="112" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="112" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="111" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="14.1" customHeight="1">
-      <c r="A15" s="35"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="65"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.1" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="65"/>
-    </row>
-    <row r="17" spans="1:7" ht="14.1" customHeight="1">
-      <c r="A17" s="35"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="65"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A18" s="35"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="63"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.78740157480314965" right="0.59055118110236227" top="0.86614173228346458" bottom="0.78740157480314965" header="0.47244094488188981" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter xml:space="preserve">&amp;C&amp;10　
-&amp;R&amp;10
-</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>